--- a/高松チーム/必要書類/スケジュール/スケジュール.xlsx
+++ b/高松チーム/必要書類/スケジュール/スケジュール.xlsx
@@ -18,26 +18,454 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>お札</t>
+    <rPh sb="1" eb="2">
+      <t>フダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>シーン移行UI</t>
+    <rPh sb="3" eb="5">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チュートリアル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>説明UI</t>
+  </si>
+  <si>
+    <t>一時停止</t>
+    <rPh sb="0" eb="2">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>オブジェクト配置</t>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>シーン移行</t>
+    <rPh sb="3" eb="5">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ロゴ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>シーン選択</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゲームシーン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チュートリアル移行</t>
+    <rPh sb="7" eb="9">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゲームシーン移行</t>
+    <rPh sb="6" eb="8">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゲーム本編</t>
+    <rPh sb="3" eb="5">
+      <t>ホンペン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>移動管理</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>しゃがみ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>近距離攻撃</t>
+    <rPh sb="0" eb="3">
+      <t>キンキョリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>遠距離攻撃</t>
+    <rPh sb="0" eb="3">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>必殺攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッサツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アイテム獲得効果</t>
+    <rPh sb="4" eb="6">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ダメージ受</t>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>死亡</t>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エネミー１</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エネミー3</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エネミー2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エネミー4</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エネミー5</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>必殺技</t>
+    <rPh sb="0" eb="3">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エネミー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ボス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゲームクリア</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コンティニュー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>通常</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ウェーブ管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>出現管理</t>
+    <rPh sb="0" eb="2">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>横ブレス</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>範囲ブレス</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>尻尾薙ぎ払い</t>
+    <rPh sb="0" eb="2">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>噛みつき</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>連続ひっかき</t>
+    <rPh sb="0" eb="2">
+      <t>レンゾク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>発表</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>国見</t>
+    <rPh sb="0" eb="2">
+      <t>クニミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中尾</t>
+    <rPh sb="0" eb="2">
+      <t>ナカオ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>番條</t>
+    <rPh sb="0" eb="1">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -45,15 +473,567 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="56" fontId="1" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="56" fontId="1" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="20% - アクセント 1" xfId="3" builtinId="30"/>
+    <cellStyle name="40% - アクセント 1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - アクセント 2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - アクセント 4" xfId="6" builtinId="43"/>
+    <cellStyle name="悪い" xfId="2" builtinId="27"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +1049,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +1094,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +1129,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +1311,1891 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:CN62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q55" sqref="Q55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="31">
+        <v>43535</v>
+      </c>
+      <c r="H1" s="19">
+        <v>43536</v>
+      </c>
+      <c r="I1" s="19">
+        <v>43537</v>
+      </c>
+      <c r="J1" s="19">
+        <v>43538</v>
+      </c>
+      <c r="K1" s="19">
+        <v>43539</v>
+      </c>
+      <c r="L1" s="59">
+        <v>43540</v>
+      </c>
+      <c r="M1" s="59">
+        <v>43541</v>
+      </c>
+      <c r="N1" s="19">
+        <v>43542</v>
+      </c>
+      <c r="O1" s="19">
+        <v>43543</v>
+      </c>
+      <c r="P1" s="19">
+        <v>43544</v>
+      </c>
+      <c r="Q1" s="59">
+        <v>43545</v>
+      </c>
+      <c r="R1" s="19">
+        <v>43546</v>
+      </c>
+      <c r="S1" s="59">
+        <v>43547</v>
+      </c>
+      <c r="T1" s="60">
+        <v>43548</v>
+      </c>
+      <c r="U1" s="23">
+        <v>43549</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="4"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="69"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="25"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="25"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="25"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="66"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="25"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="56"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="25"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="25"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="25"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="25"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="25"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="25"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="25"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="25"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="25"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="42"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="25"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="25"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="25"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="37"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="25"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="25"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="49"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="25"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="25"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="37"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="25"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="37"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="25"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="49"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="25"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="25"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="25"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="25"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="25"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="28"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="25"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="51"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="25"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="51"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="25"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="52"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="25"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="66"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="25"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="44"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="25"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="44"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="25"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="45"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="25"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="28"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="25"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="51"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="25"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="51"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="25"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="51"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="25"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="51"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="25"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="51"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="25"/>
+    </row>
+    <row r="49" spans="1:92" x14ac:dyDescent="0.4">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="52"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="25"/>
+    </row>
+    <row r="50" spans="1:92" x14ac:dyDescent="0.4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="67"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="25"/>
+    </row>
+    <row r="51" spans="1:92" x14ac:dyDescent="0.4">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="44"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="25"/>
+    </row>
+    <row r="52" spans="1:92" x14ac:dyDescent="0.4">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="44"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="25"/>
+    </row>
+    <row r="53" spans="1:92" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="45"/>
+      <c r="G53" s="28"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="25"/>
+    </row>
+    <row r="54" spans="1:92" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="28"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="25"/>
+    </row>
+    <row r="55" spans="1:92" x14ac:dyDescent="0.4">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="51"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="25"/>
+    </row>
+    <row r="56" spans="1:92" x14ac:dyDescent="0.4">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="52"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="25"/>
+    </row>
+    <row r="57" spans="1:92" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" s="28"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="25"/>
+    </row>
+    <row r="58" spans="1:92" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="49"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2"/>
+      <c r="AJ58" s="2"/>
+      <c r="AK58" s="2"/>
+      <c r="AL58" s="2"/>
+      <c r="AM58" s="2"/>
+      <c r="AN58" s="2"/>
+      <c r="AO58" s="2"/>
+      <c r="AP58" s="2"/>
+      <c r="AQ58" s="2"/>
+      <c r="AR58" s="2"/>
+      <c r="AS58" s="2"/>
+      <c r="AT58" s="2"/>
+      <c r="AU58" s="2"/>
+      <c r="AV58" s="2"/>
+      <c r="AW58" s="2"/>
+      <c r="AX58" s="2"/>
+      <c r="AY58" s="2"/>
+      <c r="AZ58" s="2"/>
+      <c r="BA58" s="2"/>
+      <c r="BB58" s="2"/>
+      <c r="BC58" s="2"/>
+      <c r="BD58" s="2"/>
+      <c r="BE58" s="2"/>
+      <c r="BF58" s="2"/>
+      <c r="BG58" s="2"/>
+      <c r="BH58" s="2"/>
+      <c r="BI58" s="2"/>
+      <c r="BJ58" s="2"/>
+      <c r="BK58" s="2"/>
+      <c r="BL58" s="2"/>
+      <c r="BM58" s="2"/>
+      <c r="BN58" s="2"/>
+      <c r="BO58" s="2"/>
+      <c r="BP58" s="2"/>
+      <c r="BQ58" s="2"/>
+      <c r="BR58" s="2"/>
+      <c r="BS58" s="2"/>
+      <c r="BT58" s="2"/>
+      <c r="BU58" s="2"/>
+      <c r="BV58" s="2"/>
+      <c r="BW58" s="2"/>
+      <c r="BX58" s="2"/>
+      <c r="BY58" s="2"/>
+      <c r="BZ58" s="2"/>
+      <c r="CA58" s="2"/>
+      <c r="CB58" s="2"/>
+      <c r="CC58" s="2"/>
+      <c r="CD58" s="2"/>
+      <c r="CE58" s="2"/>
+      <c r="CF58" s="2"/>
+      <c r="CG58" s="2"/>
+      <c r="CH58" s="2"/>
+      <c r="CI58" s="2"/>
+      <c r="CJ58" s="2"/>
+      <c r="CK58" s="2"/>
+      <c r="CL58" s="2"/>
+      <c r="CM58" s="2"/>
+      <c r="CN58" s="2"/>
+    </row>
+    <row r="59" spans="1:92" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="30"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="70"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="2"/>
+      <c r="AM59" s="2"/>
+      <c r="AN59" s="2"/>
+      <c r="AO59" s="2"/>
+      <c r="AP59" s="2"/>
+      <c r="AQ59" s="2"/>
+      <c r="AR59" s="2"/>
+      <c r="AS59" s="2"/>
+      <c r="AT59" s="2"/>
+      <c r="AU59" s="2"/>
+      <c r="AV59" s="2"/>
+      <c r="AW59" s="2"/>
+      <c r="AX59" s="2"/>
+      <c r="AY59" s="2"/>
+      <c r="AZ59" s="2"/>
+      <c r="BA59" s="2"/>
+      <c r="BB59" s="2"/>
+      <c r="BC59" s="2"/>
+      <c r="BD59" s="2"/>
+      <c r="BE59" s="2"/>
+      <c r="BF59" s="2"/>
+      <c r="BG59" s="2"/>
+      <c r="BH59" s="2"/>
+      <c r="BI59" s="2"/>
+      <c r="BJ59" s="2"/>
+      <c r="BK59" s="2"/>
+      <c r="BL59" s="2"/>
+      <c r="BM59" s="2"/>
+      <c r="BN59" s="2"/>
+      <c r="BO59" s="2"/>
+      <c r="BP59" s="2"/>
+      <c r="BQ59" s="2"/>
+      <c r="BR59" s="2"/>
+      <c r="BS59" s="2"/>
+      <c r="BT59" s="2"/>
+      <c r="BU59" s="2"/>
+      <c r="BV59" s="2"/>
+      <c r="BW59" s="2"/>
+      <c r="BX59" s="2"/>
+      <c r="BY59" s="2"/>
+      <c r="BZ59" s="2"/>
+      <c r="CA59" s="2"/>
+      <c r="CB59" s="2"/>
+      <c r="CC59" s="2"/>
+      <c r="CD59" s="2"/>
+      <c r="CE59" s="2"/>
+      <c r="CF59" s="2"/>
+      <c r="CG59" s="2"/>
+      <c r="CH59" s="2"/>
+      <c r="CI59" s="2"/>
+      <c r="CJ59" s="2"/>
+      <c r="CK59" s="2"/>
+      <c r="CL59" s="2"/>
+      <c r="CM59" s="2"/>
+      <c r="CN59" s="2"/>
+    </row>
+    <row r="60" spans="1:92" x14ac:dyDescent="0.4">
+      <c r="A60" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="68"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="25"/>
+    </row>
+    <row r="61" spans="1:92" x14ac:dyDescent="0.4">
+      <c r="A61" s="4"/>
+      <c r="B61" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="28"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="25"/>
+    </row>
+    <row r="62" spans="1:92" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="4"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="42"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="U2:U62"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F12:F21"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B59"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/高松チーム/必要書類/スケジュール/スケジュール.xlsx
+++ b/高松チーム/必要書類/スケジュール/スケジュール.xlsx
@@ -22,36 +22,36 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>背景</t>
     <rPh sb="0" eb="2">
       <t>ハイケイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>お札</t>
     <rPh sb="1" eb="2">
       <t>フダ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>シーン移行UI</t>
     <rPh sb="3" eb="5">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>チュートリアル</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プレイヤー</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>説明UI</t>
@@ -64,57 +64,57 @@
     <rPh sb="2" eb="4">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>オブジェクト配置</t>
     <rPh sb="6" eb="8">
       <t>ハイチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>シーン移行</t>
     <rPh sb="3" eb="5">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ロゴ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>シーン選択</t>
     <rPh sb="3" eb="5">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ゲームシーン</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>チュートリアル移行</t>
     <rPh sb="7" eb="9">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ゲームシーン移行</t>
     <rPh sb="6" eb="8">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ゲーム本編</t>
     <rPh sb="3" eb="5">
       <t>ホンペン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>移動管理</t>
@@ -124,15 +124,15 @@
     <rPh sb="2" eb="4">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ジャンプ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>しゃがみ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>近距離攻撃</t>
@@ -142,7 +142,7 @@
     <rPh sb="3" eb="5">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>遠距離攻撃</t>
@@ -152,7 +152,7 @@
     <rPh sb="3" eb="5">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>必殺攻撃</t>
@@ -162,7 +162,7 @@
     <rPh sb="2" eb="4">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>当たり判定</t>
@@ -172,7 +172,7 @@
     <rPh sb="3" eb="5">
       <t>ハンテイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>アイテム獲得効果</t>
@@ -182,105 +182,105 @@
     <rPh sb="6" eb="8">
       <t>コウカ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>攻撃</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ダメージ受</t>
     <rPh sb="4" eb="5">
       <t>ウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>死亡</t>
   </si>
   <si>
     <t>死亡</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>エネミー１</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>エネミー3</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>エネミー2</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>エネミー4</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>エネミー5</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>エフェクト</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>必殺技</t>
     <rPh sb="0" eb="3">
       <t>ヒッサツワザ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>エネミー</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ボス</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>リザルト</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ゲームクリア</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ゲームオーバー</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>コンティニュー</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ステージ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ステージ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>通常</t>
     <rPh sb="0" eb="2">
       <t>ツウジョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ウェーブ管理</t>
     <rPh sb="4" eb="6">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>出現管理</t>
@@ -290,21 +290,21 @@
     <rPh sb="2" eb="4">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>横ブレス</t>
     <rPh sb="0" eb="1">
       <t>ヨコ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>範囲ブレス</t>
     <rPh sb="0" eb="2">
       <t>ハンイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>尻尾薙ぎ払い</t>
@@ -317,56 +317,56 @@
     <rPh sb="4" eb="5">
       <t>ハラ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>噛みつき</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>連続ひっかき</t>
     <rPh sb="0" eb="2">
       <t>レンゾク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>発表</t>
     <rPh sb="0" eb="2">
       <t>ハッピョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>田中</t>
     <rPh sb="0" eb="2">
       <t>タナカ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>国見</t>
     <rPh sb="0" eb="2">
       <t>クニミ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>中尾</t>
     <rPh sb="0" eb="2">
       <t>ナカオ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>番條</t>
@@ -376,39 +376,47 @@
     <rPh sb="1" eb="2">
       <t>ジョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>エネミーベース</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>コンストラクタ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>アップデート</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ドロウ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ヒットチェック</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,8 +450,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +500,17 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -880,28 +907,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -930,92 +963,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="56" fontId="1" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="56" fontId="1" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="56" fontId="2" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="56" fontId="2" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1027,37 +1022,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="7" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="20% - アクセント 1" xfId="3" builtinId="30"/>
     <cellStyle name="40% - アクセント 1" xfId="4" builtinId="31"/>
     <cellStyle name="40% - アクセント 2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - アクセント 3" xfId="8" builtinId="39"/>
     <cellStyle name="40% - アクセント 4" xfId="6" builtinId="43"/>
+    <cellStyle name="アクセント 3" xfId="7" builtinId="37"/>
     <cellStyle name="悪い" xfId="2" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
@@ -1341,8 +1378,8 @@
   <dimension ref="A1:CN66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1417,7 +1454,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
@@ -1426,7 +1463,7 @@
       <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="71" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="18"/>
@@ -1443,7 +1480,7 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="12"/>
-      <c r="U2" s="54" t="s">
+      <c r="U2" s="55" t="s">
         <v>51</v>
       </c>
       <c r="V2" s="2"/>
@@ -1453,14 +1490,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="68"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="17"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1475,7 +1512,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="55"/>
+      <c r="U3" s="56"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1483,14 +1520,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="68"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="17"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1505,7 +1542,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="13"/>
-      <c r="U4" s="55"/>
+      <c r="U4" s="56"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1513,13 +1550,13 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="68"/>
+      <c r="A5" s="43"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1534,7 +1571,7 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="55"/>
+      <c r="U5" s="56"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1542,7 +1579,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6"/>
@@ -1550,7 +1587,7 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="73" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="18"/>
@@ -1567,7 +1604,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="55"/>
+      <c r="U6" s="56"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1575,13 +1612,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="68"/>
+      <c r="A7" s="43"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="19"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1596,7 +1633,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="55"/>
+      <c r="U7" s="56"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1604,17 +1641,17 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="70" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="18"/>
@@ -1630,17 +1667,17 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="55"/>
+      <c r="U8" s="56"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="17"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1655,17 +1692,17 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="55"/>
+      <c r="U9" s="56"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="17"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1679,16 +1716,16 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="55"/>
+      <c r="U10" s="56"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="46"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="17"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1702,21 +1739,21 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="55"/>
+      <c r="U11" s="56"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="64" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="27"/>
@@ -1733,17 +1770,17 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="55"/>
+      <c r="U12" s="56"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="61"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="59"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="27"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1758,17 +1795,17 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="55"/>
+      <c r="U13" s="56"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="61"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="59"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="27"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1783,17 +1820,17 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="55"/>
+      <c r="U14" s="56"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="61"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="59"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="27"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1808,17 +1845,17 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="55"/>
+      <c r="U15" s="56"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="61"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="17"/>
       <c r="H16" s="28"/>
       <c r="I16" s="4"/>
@@ -1833,17 +1870,17 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="55"/>
+      <c r="U16" s="56"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="61"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="59"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="17"/>
       <c r="H17" s="4"/>
       <c r="I17" s="28"/>
@@ -1858,17 +1895,17 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="55"/>
+      <c r="U17" s="56"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="61"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="59"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="17"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1883,17 +1920,17 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="55"/>
+      <c r="U18" s="56"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="61"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="59"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="17"/>
       <c r="H19" s="28"/>
       <c r="I19" s="4"/>
@@ -1908,17 +1945,17 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="55"/>
+      <c r="U19" s="56"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="61"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="59"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="17"/>
       <c r="H20" s="28"/>
       <c r="I20" s="4"/>
@@ -1933,17 +1970,17 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="55"/>
+      <c r="U20" s="56"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="61"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="43"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="17"/>
       <c r="H21" s="28"/>
       <c r="I21" s="4"/>
@@ -1958,11 +1995,11 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="55"/>
+      <c r="U21" s="56"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="22" t="s">
         <v>44</v>
       </c>
@@ -1970,11 +2007,11 @@
       <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="61" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="37"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -1987,20 +2024,20 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="55"/>
+      <c r="U22" s="56"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="70" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="46" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="73"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="75"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2014,18 +2051,18 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="55"/>
+      <c r="U23" s="56"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="71"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="73"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2039,18 +2076,18 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="55"/>
+      <c r="U24" s="56"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="71"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="73"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="75"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2063,18 +2100,18 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="55"/>
+      <c r="U25" s="56"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="72"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="73"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -2088,19 +2125,19 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="55"/>
+      <c r="U26" s="56"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="61" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="49" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="58" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="17"/>
@@ -2117,17 +2154,17 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="55"/>
+      <c r="U27" s="56"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="61"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="48"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="26"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2142,17 +2179,17 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="55"/>
+      <c r="U28" s="56"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="61"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="48"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="26"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2167,17 +2204,17 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="55"/>
+      <c r="U29" s="56"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="61"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="58"/>
+      <c r="F30" s="60"/>
       <c r="G30" s="26"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2192,19 +2229,19 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="55"/>
+      <c r="U30" s="56"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="58" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="17"/>
@@ -2221,17 +2258,17 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="55"/>
+      <c r="U31" s="56"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="26"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2246,17 +2283,17 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="55"/>
+      <c r="U32" s="56"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="48"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="26"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2271,17 +2308,17 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="55"/>
+      <c r="U33" s="56"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="58"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="26"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -2296,19 +2333,19 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="55"/>
+      <c r="U34" s="56"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35" s="68"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="64" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="17"/>
@@ -2325,17 +2362,17 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="13"/>
-      <c r="U35" s="55"/>
+      <c r="U35" s="56"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="68"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="59"/>
+      <c r="F36" s="65"/>
       <c r="G36" s="17"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2350,17 +2387,17 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="55"/>
+      <c r="U36" s="56"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A37" s="68"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="59"/>
+      <c r="F37" s="65"/>
       <c r="G37" s="17"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2375,17 +2412,17 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="55"/>
+      <c r="U37" s="56"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A38" s="68"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="43"/>
+      <c r="F38" s="66"/>
       <c r="G38" s="17"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2400,19 +2437,19 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="55"/>
+      <c r="U38" s="56"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A39" s="68"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68" t="s">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="67" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="17"/>
@@ -2429,17 +2466,17 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="55"/>
+      <c r="U39" s="56"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A40" s="68"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="52"/>
+      <c r="F40" s="68"/>
       <c r="G40" s="17"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2454,17 +2491,17 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="55"/>
+      <c r="U40" s="56"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A41" s="68"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="52"/>
+      <c r="F41" s="68"/>
       <c r="G41" s="17"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2479,17 +2516,17 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="55"/>
+      <c r="U41" s="56"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="53"/>
+      <c r="F42" s="69"/>
       <c r="G42" s="17"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2504,19 +2541,19 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="55"/>
+      <c r="U42" s="56"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A43" s="68"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68" t="s">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="61" t="s">
         <v>54</v>
       </c>
       <c r="H43" s="37"/>
@@ -2532,17 +2569,17 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="13"/>
-      <c r="U43" s="55"/>
+      <c r="U43" s="56"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A44" s="68"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="45"/>
+      <c r="F44" s="62"/>
       <c r="G44" s="38"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -2557,17 +2594,17 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="13"/>
-      <c r="U44" s="55"/>
+      <c r="U44" s="56"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A45" s="68"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="45"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="38"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -2582,17 +2619,17 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="13"/>
-      <c r="U45" s="55"/>
+      <c r="U45" s="56"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A46" s="68"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="46"/>
+      <c r="F46" s="63"/>
       <c r="G46" s="38"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -2607,18 +2644,18 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="13"/>
-      <c r="U46" s="55"/>
+      <c r="U46" s="56"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A47" s="68"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="61" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="49" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="51" t="s">
+      <c r="F47" s="67" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="17"/>
@@ -2635,19 +2672,19 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="13"/>
-      <c r="U47" s="55"/>
+      <c r="U47" s="56"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A48" s="68"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62" t="s">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="52"/>
+      <c r="F48" s="68"/>
       <c r="G48" s="35"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -2662,17 +2699,17 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="13"/>
-      <c r="U48" s="55"/>
+      <c r="U48" s="56"/>
     </row>
     <row r="49" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A49" s="68"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="62"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50"/>
       <c r="E49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="52"/>
+      <c r="F49" s="68"/>
       <c r="G49" s="17"/>
       <c r="H49" s="4"/>
       <c r="I49" s="29"/>
@@ -2687,17 +2724,17 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="13"/>
-      <c r="U49" s="55"/>
+      <c r="U49" s="56"/>
     </row>
     <row r="50" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A50" s="68"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="62"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="50"/>
       <c r="E50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="52"/>
+      <c r="F50" s="68"/>
       <c r="G50" s="17"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -2712,17 +2749,17 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="13"/>
-      <c r="U50" s="55"/>
+      <c r="U50" s="56"/>
     </row>
     <row r="51" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A51" s="68"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="62"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="50"/>
       <c r="E51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="52"/>
+      <c r="F51" s="68"/>
       <c r="G51" s="17"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -2737,17 +2774,17 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="13"/>
-      <c r="U51" s="55"/>
+      <c r="U51" s="56"/>
     </row>
     <row r="52" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A52" s="68"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="62"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="52"/>
+      <c r="F52" s="68"/>
       <c r="G52" s="17"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2762,19 +2799,19 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="13"/>
-      <c r="U52" s="55"/>
+      <c r="U52" s="56"/>
     </row>
     <row r="53" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A53" s="68"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="61"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="53"/>
+      <c r="F53" s="69"/>
       <c r="G53" s="36"/>
       <c r="H53" s="29"/>
       <c r="I53" s="4"/>
@@ -2789,21 +2826,21 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="13"/>
-      <c r="U53" s="55"/>
+      <c r="U53" s="56"/>
     </row>
     <row r="54" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A54" s="68"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="63" t="s">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="62" t="s">
+      <c r="D54" s="50" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="44" t="s">
+      <c r="F54" s="61" t="s">
         <v>54</v>
       </c>
       <c r="G54" s="38"/>
@@ -2820,17 +2857,17 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="13"/>
-      <c r="U54" s="55"/>
+      <c r="U54" s="56"/>
     </row>
     <row r="55" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A55" s="68"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="62"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="50"/>
       <c r="E55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="45"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="17"/>
       <c r="H55" s="37"/>
       <c r="I55" s="4"/>
@@ -2845,17 +2882,17 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="13"/>
-      <c r="U55" s="55"/>
+      <c r="U55" s="56"/>
     </row>
     <row r="56" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A56" s="68"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="62"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="45"/>
+      <c r="F56" s="62"/>
       <c r="G56" s="17"/>
       <c r="H56" s="4"/>
       <c r="I56" s="37"/>
@@ -2870,17 +2907,17 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="13"/>
-      <c r="U56" s="55"/>
+      <c r="U56" s="56"/>
     </row>
     <row r="57" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A57" s="68"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="62"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="46"/>
+      <c r="F57" s="63"/>
       <c r="G57" s="17"/>
       <c r="I57" s="4"/>
       <c r="J57" s="37"/>
@@ -2894,19 +2931,19 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="13"/>
-      <c r="U57" s="55"/>
+      <c r="U57" s="56"/>
     </row>
     <row r="58" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A58" s="68"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="64"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="51" t="s">
+      <c r="F58" s="67" t="s">
         <v>56</v>
       </c>
       <c r="G58" s="17"/>
@@ -2923,19 +2960,19 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="13"/>
-      <c r="U58" s="55"/>
+      <c r="U58" s="56"/>
     </row>
     <row r="59" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A59" s="68"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="66" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="53" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="52"/>
+      <c r="F59" s="68"/>
       <c r="G59" s="36"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -2950,17 +2987,17 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="13"/>
-      <c r="U59" s="55"/>
+      <c r="U59" s="56"/>
     </row>
     <row r="60" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A60" s="68"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="67"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="54"/>
       <c r="E60" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="53"/>
+      <c r="F60" s="69"/>
       <c r="G60" s="17"/>
       <c r="H60" s="4"/>
       <c r="I60" s="29"/>
@@ -2975,19 +3012,19 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="13"/>
-      <c r="U60" s="55"/>
+      <c r="U60" s="56"/>
     </row>
     <row r="61" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A61" s="68"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="61" t="s">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="49" t="s">
         <v>42</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="57" t="s">
+      <c r="F61" s="58" t="s">
         <v>53</v>
       </c>
       <c r="G61" s="17"/>
@@ -3004,17 +3041,17 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="13"/>
-      <c r="U61" s="55"/>
+      <c r="U61" s="56"/>
     </row>
     <row r="62" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A62" s="68"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="61"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="58"/>
+      <c r="F62" s="60"/>
       <c r="G62" s="17"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3029,7 +3066,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="13"/>
-      <c r="U62" s="55"/>
+      <c r="U62" s="56"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
@@ -3103,8 +3140,8 @@
       <c r="CN62" s="2"/>
     </row>
     <row r="63" spans="1:92" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="69"/>
-      <c r="B63" s="69"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="10" t="s">
         <v>7</v>
       </c>
@@ -3128,7 +3165,7 @@
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="14"/>
-      <c r="U63" s="55"/>
+      <c r="U63" s="56"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
@@ -3202,7 +3239,7 @@
       <c r="CN63" s="2"/>
     </row>
     <row r="64" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A64" s="65" t="s">
+      <c r="A64" s="44" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="23" t="s">
@@ -3229,11 +3266,11 @@
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="12"/>
-      <c r="U64" s="55"/>
+      <c r="U64" s="56"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A65" s="68"/>
-      <c r="B65" s="61" t="s">
+      <c r="A65" s="43"/>
+      <c r="B65" s="49" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="4"/>
@@ -3241,7 +3278,7 @@
       <c r="E65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="42" t="s">
+      <c r="F65" s="64" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="17"/>
@@ -3258,17 +3295,17 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="13"/>
-      <c r="U65" s="55"/>
+      <c r="U65" s="56"/>
     </row>
     <row r="66" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="68"/>
-      <c r="B66" s="61"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="43"/>
+      <c r="F66" s="66"/>
       <c r="G66" s="17"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3283,10 +3320,30 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="13"/>
-      <c r="U66" s="56"/>
+      <c r="U66" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="U2:U66"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F12:F21"/>
+    <mergeCell ref="F47:F53"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F65:F66"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A8:A63"/>
@@ -3303,28 +3360,8 @@
     <mergeCell ref="C47:C53"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="U2:U66"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F12:F21"/>
-    <mergeCell ref="F47:F53"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F58:F60"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/高松チーム/必要書類/スケジュール/スケジュール.xlsx
+++ b/高松チーム/必要書類/スケジュール/スケジュール.xlsx
@@ -992,12 +992,86 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,80 +1087,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="7" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - アクセント 1" xfId="3" builtinId="30"/>
@@ -1378,8 +1378,8 @@
   <dimension ref="A1:CN66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1454,7 +1454,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
@@ -1463,7 +1463,7 @@
       <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="48" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="18"/>
@@ -1480,7 +1480,7 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="12"/>
-      <c r="U2" s="55" t="s">
+      <c r="U2" s="61" t="s">
         <v>51</v>
       </c>
       <c r="V2" s="2"/>
@@ -1490,14 +1490,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="59"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="17"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1512,7 +1512,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="56"/>
+      <c r="U3" s="62"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1520,14 +1520,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="59"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="17"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1542,7 +1542,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="13"/>
-      <c r="U4" s="56"/>
+      <c r="U4" s="62"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1550,13 +1550,13 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="43"/>
+      <c r="A5" s="70"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1571,7 +1571,7 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="56"/>
+      <c r="U5" s="62"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1579,7 +1579,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="70" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6"/>
@@ -1587,7 +1587,7 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="51" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="18"/>
@@ -1604,7 +1604,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="56"/>
+      <c r="U6" s="62"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1612,13 +1612,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="43"/>
+      <c r="A7" s="70"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="19"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1633,7 +1633,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="56"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1641,17 +1641,17 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="70" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="69" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="18"/>
@@ -1667,17 +1667,17 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="56"/>
+      <c r="U8" s="62"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="17"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1692,17 +1692,17 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="56"/>
+      <c r="U9" s="62"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="17"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1716,16 +1716,16 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="56"/>
+      <c r="U10" s="62"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="63"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="17"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1739,21 +1739,21 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="56"/>
+      <c r="U11" s="62"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="75" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="66" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="27"/>
@@ -1770,17 +1770,17 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="56"/>
+      <c r="U12" s="62"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="49"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="65"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="27"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1795,17 +1795,17 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="56"/>
+      <c r="U13" s="62"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="49"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="65"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="27"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1820,17 +1820,17 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="56"/>
+      <c r="U14" s="62"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="49"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="65"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="27"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1845,17 +1845,17 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="56"/>
+      <c r="U15" s="62"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="49"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="65"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="17"/>
       <c r="H16" s="28"/>
       <c r="I16" s="4"/>
@@ -1870,17 +1870,17 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="56"/>
+      <c r="U16" s="62"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="49"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="65"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="17"/>
       <c r="H17" s="4"/>
       <c r="I17" s="28"/>
@@ -1895,17 +1895,17 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="56"/>
+      <c r="U17" s="62"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="49"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="65"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="17"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1920,17 +1920,17 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="56"/>
+      <c r="U18" s="62"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="49"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="65"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="17"/>
       <c r="H19" s="28"/>
       <c r="I19" s="4"/>
@@ -1945,17 +1945,17 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="56"/>
+      <c r="U19" s="62"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="49"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="65"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="17"/>
       <c r="H20" s="28"/>
       <c r="I20" s="4"/>
@@ -1970,17 +1970,17 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="56"/>
+      <c r="U20" s="62"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="49"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="66"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="17"/>
       <c r="H21" s="28"/>
       <c r="I21" s="4"/>
@@ -1995,11 +1995,11 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="56"/>
+      <c r="U21" s="62"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="22" t="s">
         <v>44</v>
       </c>
@@ -2007,11 +2007,11 @@
       <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="45" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="74"/>
+      <c r="H22" s="43"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2024,20 +2024,20 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="56"/>
+      <c r="U22" s="62"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="46" t="s">
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="72" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="75"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2051,18 +2051,18 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="56"/>
+      <c r="U23" s="62"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="47"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="75"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="44"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2076,18 +2076,18 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="56"/>
+      <c r="U24" s="62"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="47"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="75"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="44"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2100,17 +2100,17 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="56"/>
+      <c r="U25" s="62"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="48"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="63"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="42"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -2125,19 +2125,19 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="56"/>
+      <c r="U26" s="62"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="49" t="s">
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="75" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="58" t="s">
+      <c r="F27" s="64" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="17"/>
@@ -2154,17 +2154,17 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="56"/>
+      <c r="U27" s="62"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="49"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="59"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="26"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2179,17 +2179,17 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="56"/>
+      <c r="U28" s="62"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="49"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="59"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="26"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2204,17 +2204,17 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="56"/>
+      <c r="U29" s="62"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="49"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="60"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="26"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2229,19 +2229,19 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="56"/>
+      <c r="U30" s="62"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43" t="s">
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="58" t="s">
+      <c r="F31" s="64" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="17"/>
@@ -2258,17 +2258,17 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="56"/>
+      <c r="U31" s="62"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="59"/>
+      <c r="F32" s="49"/>
       <c r="G32" s="26"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2283,17 +2283,17 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="56"/>
+      <c r="U32" s="62"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="59"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="26"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2308,17 +2308,17 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="56"/>
+      <c r="U33" s="62"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="60"/>
+      <c r="F34" s="65"/>
       <c r="G34" s="26"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -2333,19 +2333,19 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="56"/>
+      <c r="U34" s="62"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43" t="s">
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" s="66" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="17"/>
@@ -2362,17 +2362,17 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="13"/>
-      <c r="U35" s="56"/>
+      <c r="U35" s="62"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="65"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="17"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2387,17 +2387,17 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="56"/>
+      <c r="U36" s="62"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="65"/>
+      <c r="F37" s="67"/>
       <c r="G37" s="17"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2412,17 +2412,17 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="56"/>
+      <c r="U37" s="62"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="66"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="17"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2437,19 +2437,19 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="56"/>
+      <c r="U38" s="62"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43" t="s">
+      <c r="A39" s="70"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="52" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="17"/>
@@ -2466,17 +2466,17 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="56"/>
+      <c r="U39" s="62"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="68"/>
+      <c r="F40" s="53"/>
       <c r="G40" s="17"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2491,17 +2491,17 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="56"/>
+      <c r="U40" s="62"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="68"/>
+      <c r="F41" s="53"/>
       <c r="G41" s="17"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2516,17 +2516,17 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="56"/>
+      <c r="U41" s="62"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="69"/>
+      <c r="F42" s="54"/>
       <c r="G42" s="17"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2541,19 +2541,19 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="56"/>
+      <c r="U42" s="62"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43" t="s">
+      <c r="A43" s="70"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="45" t="s">
         <v>54</v>
       </c>
       <c r="H43" s="37"/>
@@ -2569,17 +2569,17 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="13"/>
-      <c r="U43" s="56"/>
+      <c r="U43" s="62"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="62"/>
+      <c r="F44" s="46"/>
       <c r="G44" s="38"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -2594,17 +2594,17 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="13"/>
-      <c r="U44" s="56"/>
+      <c r="U44" s="62"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="62"/>
+      <c r="F45" s="46"/>
       <c r="G45" s="38"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -2619,17 +2619,17 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="13"/>
-      <c r="U45" s="56"/>
+      <c r="U45" s="62"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="63"/>
+      <c r="F46" s="47"/>
       <c r="G46" s="38"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -2644,18 +2644,18 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="13"/>
-      <c r="U46" s="56"/>
+      <c r="U46" s="62"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="49" t="s">
+      <c r="A47" s="70"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="75" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="67" t="s">
+      <c r="F47" s="52" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="17"/>
@@ -2672,19 +2672,19 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="13"/>
-      <c r="U47" s="56"/>
+      <c r="U47" s="62"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="50" t="s">
+      <c r="A48" s="70"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="55" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="68"/>
+      <c r="F48" s="53"/>
       <c r="G48" s="35"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -2699,17 +2699,17 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="13"/>
-      <c r="U48" s="56"/>
+      <c r="U48" s="62"/>
     </row>
     <row r="49" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="50"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="55"/>
       <c r="E49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="68"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="17"/>
       <c r="H49" s="4"/>
       <c r="I49" s="29"/>
@@ -2724,17 +2724,17 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="13"/>
-      <c r="U49" s="56"/>
+      <c r="U49" s="62"/>
     </row>
     <row r="50" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="68"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="17"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -2749,17 +2749,17 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="13"/>
-      <c r="U50" s="56"/>
+      <c r="U50" s="62"/>
     </row>
     <row r="51" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="50"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="68"/>
+      <c r="F51" s="53"/>
       <c r="G51" s="17"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -2774,17 +2774,17 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="13"/>
-      <c r="U51" s="56"/>
+      <c r="U51" s="62"/>
     </row>
     <row r="52" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="50"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="55"/>
       <c r="E52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="68"/>
+      <c r="F52" s="53"/>
       <c r="G52" s="17"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2799,19 +2799,19 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="13"/>
-      <c r="U52" s="56"/>
+      <c r="U52" s="62"/>
     </row>
     <row r="53" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="49"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="69"/>
+      <c r="F53" s="54"/>
       <c r="G53" s="36"/>
       <c r="H53" s="29"/>
       <c r="I53" s="4"/>
@@ -2826,21 +2826,21 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="13"/>
-      <c r="U53" s="56"/>
+      <c r="U53" s="62"/>
     </row>
     <row r="54" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="51" t="s">
+      <c r="A54" s="70"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="55" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="61" t="s">
+      <c r="F54" s="45" t="s">
         <v>54</v>
       </c>
       <c r="G54" s="38"/>
@@ -2857,17 +2857,17 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="13"/>
-      <c r="U54" s="56"/>
+      <c r="U54" s="62"/>
     </row>
     <row r="55" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="50"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="62"/>
+      <c r="F55" s="46"/>
       <c r="G55" s="17"/>
       <c r="H55" s="37"/>
       <c r="I55" s="4"/>
@@ -2882,17 +2882,17 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="13"/>
-      <c r="U55" s="56"/>
+      <c r="U55" s="62"/>
     </row>
     <row r="56" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="50"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="62"/>
+      <c r="F56" s="46"/>
       <c r="G56" s="17"/>
       <c r="H56" s="4"/>
       <c r="I56" s="37"/>
@@ -2907,17 +2907,17 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="13"/>
-      <c r="U56" s="56"/>
+      <c r="U56" s="62"/>
     </row>
     <row r="57" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="50"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="63"/>
+      <c r="F57" s="47"/>
       <c r="G57" s="17"/>
       <c r="I57" s="4"/>
       <c r="J57" s="37"/>
@@ -2931,19 +2931,19 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="13"/>
-      <c r="U57" s="56"/>
+      <c r="U57" s="62"/>
     </row>
     <row r="58" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="52"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="67" t="s">
+      <c r="F58" s="52" t="s">
         <v>56</v>
       </c>
       <c r="G58" s="17"/>
@@ -2960,19 +2960,19 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="13"/>
-      <c r="U58" s="56"/>
+      <c r="U58" s="62"/>
     </row>
     <row r="59" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="53" t="s">
+      <c r="A59" s="70"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="59" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="68"/>
+      <c r="F59" s="53"/>
       <c r="G59" s="36"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -2987,17 +2987,17 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="13"/>
-      <c r="U59" s="56"/>
+      <c r="U59" s="62"/>
     </row>
     <row r="60" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="54"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="60"/>
       <c r="E60" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="69"/>
+      <c r="F60" s="54"/>
       <c r="G60" s="17"/>
       <c r="H60" s="4"/>
       <c r="I60" s="29"/>
@@ -3012,19 +3012,19 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="13"/>
-      <c r="U60" s="56"/>
+      <c r="U60" s="62"/>
     </row>
     <row r="61" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="49" t="s">
+      <c r="A61" s="70"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="75" t="s">
         <v>42</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="58" t="s">
+      <c r="F61" s="64" t="s">
         <v>53</v>
       </c>
       <c r="G61" s="17"/>
@@ -3041,17 +3041,17 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="13"/>
-      <c r="U61" s="56"/>
+      <c r="U61" s="62"/>
     </row>
     <row r="62" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="49"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="60"/>
+      <c r="F62" s="65"/>
       <c r="G62" s="17"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3066,7 +3066,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="13"/>
-      <c r="U62" s="56"/>
+      <c r="U62" s="62"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
@@ -3140,8 +3140,8 @@
       <c r="CN62" s="2"/>
     </row>
     <row r="63" spans="1:92" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="71"/>
       <c r="C63" s="10" t="s">
         <v>7</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="14"/>
-      <c r="U63" s="56"/>
+      <c r="U63" s="62"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
@@ -3239,7 +3239,7 @@
       <c r="CN63" s="2"/>
     </row>
     <row r="64" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="58" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="23" t="s">
@@ -3266,11 +3266,11 @@
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="12"/>
-      <c r="U64" s="56"/>
+      <c r="U64" s="62"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A65" s="43"/>
-      <c r="B65" s="49" t="s">
+      <c r="A65" s="70"/>
+      <c r="B65" s="75" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="4"/>
@@ -3278,7 +3278,7 @@
       <c r="E65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="64" t="s">
+      <c r="F65" s="66" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="17"/>
@@ -3295,17 +3295,17 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="13"/>
-      <c r="U65" s="56"/>
+      <c r="U65" s="62"/>
     </row>
     <row r="66" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="43"/>
-      <c r="B66" s="49"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="75"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="66"/>
+      <c r="F66" s="68"/>
       <c r="G66" s="17"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3320,16 +3320,24 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="13"/>
-      <c r="U66" s="57"/>
+      <c r="U66" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B63"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C54:C60"/>
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="U2:U66"/>
@@ -3345,21 +3353,13 @@
     <mergeCell ref="F22:F26"/>
     <mergeCell ref="F65:F66"/>
     <mergeCell ref="C43:C46"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B63"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D54:D57"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高松チーム/必要書類/スケジュール/スケジュール.xlsx
+++ b/高松チーム/必要書類/スケジュール/スケジュール.xlsx
@@ -934,7 +934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -988,12 +988,53 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="8" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,90 +1044,50 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="7" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - アクセント 1" xfId="3" builtinId="30"/>
@@ -1378,8 +1379,8 @@
   <dimension ref="A1:CN66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1454,7 +1455,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
@@ -1463,7 +1464,7 @@
       <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="71" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="18"/>
@@ -1480,7 +1481,7 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="12"/>
-      <c r="U2" s="61" t="s">
+      <c r="U2" s="52" t="s">
         <v>51</v>
       </c>
       <c r="V2" s="2"/>
@@ -1490,14 +1491,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="70"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="17"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1512,7 +1513,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="62"/>
+      <c r="U3" s="53"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1520,14 +1521,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="70"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="17"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1542,7 +1543,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="13"/>
-      <c r="U4" s="62"/>
+      <c r="U4" s="53"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1550,13 +1551,13 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="70"/>
+      <c r="A5" s="45"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="50"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1571,7 +1572,7 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="62"/>
+      <c r="U5" s="53"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1579,7 +1580,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6"/>
@@ -1587,7 +1588,7 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="73" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="18"/>
@@ -1604,7 +1605,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="62"/>
+      <c r="U6" s="53"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1612,13 +1613,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="70"/>
+      <c r="A7" s="45"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="50"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="19"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1633,7 +1634,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="53"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1641,24 +1642,24 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="67" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="40"/>
+      <c r="K8" s="39"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1667,17 +1668,17 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="53"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="17"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1692,17 +1693,17 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="53"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="46"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="17"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1716,16 +1717,16 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="53"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="47"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="17"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1739,24 +1740,24 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="53"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="44" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1770,17 +1771,17 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="62"/>
+      <c r="U12" s="53"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="75"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="67"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="27"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1795,17 +1796,17 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="53"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="75"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="67"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="27"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1820,17 +1821,17 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="53"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="75"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="67"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="27"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1845,17 +1846,17 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="53"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="75"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="67"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="17"/>
       <c r="H16" s="28"/>
       <c r="I16" s="4"/>
@@ -1870,17 +1871,17 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="62"/>
+      <c r="U16" s="53"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="75"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="67"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="17"/>
       <c r="H17" s="4"/>
       <c r="I17" s="28"/>
@@ -1895,17 +1896,17 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="62"/>
+      <c r="U17" s="53"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="75"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="67"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="17"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1920,17 +1921,17 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="62"/>
+      <c r="U18" s="53"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="75"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="67"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="17"/>
       <c r="H19" s="28"/>
       <c r="I19" s="4"/>
@@ -1945,17 +1946,17 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="62"/>
+      <c r="U19" s="53"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="75"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="67"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="17"/>
       <c r="H20" s="28"/>
       <c r="I20" s="4"/>
@@ -1970,17 +1971,17 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="62"/>
+      <c r="U20" s="53"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="75"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="68"/>
+      <c r="F21" s="63"/>
       <c r="G21" s="17"/>
       <c r="H21" s="28"/>
       <c r="I21" s="4"/>
@@ -1995,11 +1996,11 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="62"/>
+      <c r="U21" s="53"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="22" t="s">
         <v>44</v>
       </c>
@@ -2007,11 +2008,11 @@
       <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="58" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="43"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2024,20 +2025,20 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="62"/>
+      <c r="U22" s="53"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="72" t="s">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="68" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="44"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="43"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2051,18 +2052,18 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="62"/>
+      <c r="U23" s="53"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="73"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="44"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="43"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2076,18 +2077,18 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="62"/>
+      <c r="U24" s="53"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="73"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="44"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="43"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2100,18 +2101,18 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="62"/>
+      <c r="U25" s="53"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="74"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="42"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -2125,19 +2126,19 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="62"/>
+      <c r="U26" s="53"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="75" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="44" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="64" t="s">
+      <c r="F27" s="55" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="17"/>
@@ -2154,17 +2155,17 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="62"/>
+      <c r="U27" s="53"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="75"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="49"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="26"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2179,17 +2180,17 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="62"/>
+      <c r="U28" s="53"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="75"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="49"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="26"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2204,17 +2205,17 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="62"/>
+      <c r="U29" s="53"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="75"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="65"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="26"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2229,19 +2230,19 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="62"/>
+      <c r="U30" s="53"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="64" t="s">
+      <c r="F31" s="55" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="17"/>
@@ -2258,17 +2259,17 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="62"/>
+      <c r="U31" s="53"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="49"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="26"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2283,17 +2284,17 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="62"/>
+      <c r="U32" s="53"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="26"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2308,17 +2309,17 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="62"/>
+      <c r="U33" s="53"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="65"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="26"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -2333,19 +2334,19 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="62"/>
+      <c r="U34" s="53"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="66" t="s">
+      <c r="F35" s="61" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="17"/>
@@ -2362,17 +2363,17 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="13"/>
-      <c r="U35" s="62"/>
+      <c r="U35" s="53"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="67"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="17"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2387,17 +2388,17 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="62"/>
+      <c r="U36" s="53"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="67"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="17"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2412,17 +2413,17 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="62"/>
+      <c r="U37" s="53"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="68"/>
+      <c r="F38" s="63"/>
       <c r="G38" s="17"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2437,19 +2438,19 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="62"/>
+      <c r="U38" s="53"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="64" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="17"/>
@@ -2466,17 +2467,17 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="62"/>
+      <c r="U39" s="53"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="53"/>
+      <c r="F40" s="65"/>
       <c r="G40" s="17"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2491,17 +2492,17 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="62"/>
+      <c r="U40" s="53"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="53"/>
+      <c r="F41" s="65"/>
       <c r="G41" s="17"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2516,17 +2517,17 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="62"/>
+      <c r="U41" s="53"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="54"/>
+      <c r="F42" s="66"/>
       <c r="G42" s="17"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2541,19 +2542,19 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="62"/>
+      <c r="U42" s="53"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="45" t="s">
+      <c r="F43" s="58" t="s">
         <v>54</v>
       </c>
       <c r="H43" s="37"/>
@@ -2569,17 +2570,17 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="13"/>
-      <c r="U43" s="62"/>
+      <c r="U43" s="53"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A44" s="70"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="46"/>
+      <c r="F44" s="59"/>
       <c r="G44" s="38"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -2594,17 +2595,17 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="13"/>
-      <c r="U44" s="62"/>
+      <c r="U44" s="53"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A45" s="70"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="46"/>
+      <c r="F45" s="59"/>
       <c r="G45" s="38"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -2619,17 +2620,17 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="13"/>
-      <c r="U45" s="62"/>
+      <c r="U45" s="53"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="47"/>
+      <c r="F46" s="60"/>
       <c r="G46" s="38"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -2644,18 +2645,18 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="13"/>
-      <c r="U46" s="62"/>
+      <c r="U46" s="53"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A47" s="70"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="75" t="s">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="52" t="s">
+      <c r="F47" s="64" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="17"/>
@@ -2672,19 +2673,19 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="13"/>
-      <c r="U47" s="62"/>
+      <c r="U47" s="53"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A48" s="70"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="55" t="s">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="74" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="53"/>
+      <c r="F48" s="65"/>
       <c r="G48" s="35"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -2699,17 +2700,17 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="13"/>
-      <c r="U48" s="62"/>
+      <c r="U48" s="53"/>
     </row>
     <row r="49" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A49" s="70"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="55"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="74"/>
       <c r="E49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="53"/>
+      <c r="F49" s="65"/>
       <c r="G49" s="17"/>
       <c r="H49" s="4"/>
       <c r="I49" s="29"/>
@@ -2724,17 +2725,17 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="13"/>
-      <c r="U49" s="62"/>
+      <c r="U49" s="53"/>
     </row>
     <row r="50" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="55"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="74"/>
       <c r="E50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="53"/>
+      <c r="F50" s="65"/>
       <c r="G50" s="17"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -2749,17 +2750,17 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="13"/>
-      <c r="U50" s="62"/>
+      <c r="U50" s="53"/>
     </row>
     <row r="51" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A51" s="70"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="55"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="74"/>
       <c r="E51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="53"/>
+      <c r="F51" s="65"/>
       <c r="G51" s="17"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -2774,17 +2775,17 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="13"/>
-      <c r="U51" s="62"/>
+      <c r="U51" s="53"/>
     </row>
     <row r="52" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="55"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="74"/>
       <c r="E52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="53"/>
+      <c r="F52" s="65"/>
       <c r="G52" s="17"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2799,19 +2800,19 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="13"/>
-      <c r="U52" s="62"/>
+      <c r="U52" s="53"/>
     </row>
     <row r="53" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A53" s="70"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="75"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="44"/>
       <c r="D53" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="54"/>
+      <c r="F53" s="66"/>
       <c r="G53" s="36"/>
       <c r="H53" s="29"/>
       <c r="I53" s="4"/>
@@ -2826,21 +2827,21 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="13"/>
-      <c r="U53" s="62"/>
+      <c r="U53" s="53"/>
     </row>
     <row r="54" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="56" t="s">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="74" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="45" t="s">
+      <c r="F54" s="58" t="s">
         <v>54</v>
       </c>
       <c r="G54" s="38"/>
@@ -2857,17 +2858,17 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="13"/>
-      <c r="U54" s="62"/>
+      <c r="U54" s="53"/>
     </row>
     <row r="55" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A55" s="70"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="55"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="74"/>
       <c r="E55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="46"/>
+      <c r="F55" s="59"/>
       <c r="G55" s="17"/>
       <c r="H55" s="37"/>
       <c r="I55" s="4"/>
@@ -2882,17 +2883,17 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="13"/>
-      <c r="U55" s="62"/>
+      <c r="U55" s="53"/>
     </row>
     <row r="56" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="55"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="46"/>
+      <c r="F56" s="59"/>
       <c r="G56" s="17"/>
       <c r="H56" s="4"/>
       <c r="I56" s="37"/>
@@ -2907,17 +2908,17 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="13"/>
-      <c r="U56" s="62"/>
+      <c r="U56" s="53"/>
     </row>
     <row r="57" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A57" s="70"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="55"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="74"/>
       <c r="E57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="47"/>
+      <c r="F57" s="60"/>
       <c r="G57" s="17"/>
       <c r="I57" s="4"/>
       <c r="J57" s="37"/>
@@ -2931,19 +2932,19 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="13"/>
-      <c r="U57" s="62"/>
+      <c r="U57" s="53"/>
     </row>
     <row r="58" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="57"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="52" t="s">
+      <c r="F58" s="64" t="s">
         <v>56</v>
       </c>
       <c r="G58" s="17"/>
@@ -2960,20 +2961,20 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="13"/>
-      <c r="U58" s="62"/>
+      <c r="U58" s="53"/>
     </row>
     <row r="59" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A59" s="70"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="59" t="s">
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="50" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="53"/>
-      <c r="G59" s="36"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="75"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -2987,17 +2988,17 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="13"/>
-      <c r="U59" s="62"/>
+      <c r="U59" s="53"/>
     </row>
     <row r="60" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="60"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="51"/>
       <c r="E60" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="54"/>
+      <c r="F60" s="66"/>
       <c r="G60" s="17"/>
       <c r="H60" s="4"/>
       <c r="I60" s="29"/>
@@ -3012,19 +3013,19 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="13"/>
-      <c r="U60" s="62"/>
+      <c r="U60" s="53"/>
     </row>
     <row r="61" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="75" t="s">
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="44" t="s">
         <v>42</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="64" t="s">
+      <c r="F61" s="55" t="s">
         <v>53</v>
       </c>
       <c r="G61" s="17"/>
@@ -3041,17 +3042,17 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="13"/>
-      <c r="U61" s="62"/>
+      <c r="U61" s="53"/>
     </row>
     <row r="62" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="75"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="44"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="65"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="17"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3066,7 +3067,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="13"/>
-      <c r="U62" s="62"/>
+      <c r="U62" s="53"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
@@ -3140,8 +3141,8 @@
       <c r="CN62" s="2"/>
     </row>
     <row r="63" spans="1:92" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="71"/>
-      <c r="B63" s="71"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="10" t="s">
         <v>7</v>
       </c>
@@ -3159,13 +3160,13 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
-      <c r="O63" s="41"/>
+      <c r="O63" s="40"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="14"/>
-      <c r="U63" s="62"/>
+      <c r="U63" s="53"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
@@ -3239,7 +3240,7 @@
       <c r="CN63" s="2"/>
     </row>
     <row r="64" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A64" s="58" t="s">
+      <c r="A64" s="46" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="23" t="s">
@@ -3252,7 +3253,7 @@
       <c r="F64" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="39"/>
+      <c r="G64" s="76"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -3266,11 +3267,11 @@
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="12"/>
-      <c r="U64" s="62"/>
+      <c r="U64" s="53"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A65" s="70"/>
-      <c r="B65" s="75" t="s">
+      <c r="A65" s="45"/>
+      <c r="B65" s="44" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="4"/>
@@ -3278,7 +3279,7 @@
       <c r="E65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="66" t="s">
+      <c r="F65" s="61" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="17"/>
@@ -3295,17 +3296,17 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="13"/>
-      <c r="U65" s="62"/>
+      <c r="U65" s="53"/>
     </row>
     <row r="66" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="70"/>
-      <c r="B66" s="75"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="68"/>
+      <c r="F66" s="63"/>
       <c r="G66" s="17"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3320,25 +3321,13 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="13"/>
-      <c r="U66" s="63"/>
+      <c r="U66" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B63"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D54:D57"/>
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="U2:U66"/>
     <mergeCell ref="F27:F30"/>
@@ -3352,14 +3341,26 @@
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="F22:F26"/>
     <mergeCell ref="F65:F66"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C23:C26"/>
     <mergeCell ref="F54:F57"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B63"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C23:C26"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高松チーム/必要書類/スケジュール/スケジュール.xlsx
+++ b/高松チーム/必要書類/スケジュール/スケジュール.xlsx
@@ -934,7 +934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -976,7 +976,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="56" fontId="2" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
@@ -993,78 +992,92 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="8" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,20 +1087,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="7" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - アクセント 1" xfId="3" builtinId="30"/>
@@ -1379,8 +1378,8 @@
   <dimension ref="A1:CN66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1418,10 +1417,10 @@
       <c r="K1" s="11">
         <v>43539</v>
       </c>
-      <c r="L1" s="30">
+      <c r="L1" s="29">
         <v>43540</v>
       </c>
-      <c r="M1" s="30">
+      <c r="M1" s="29">
         <v>43541</v>
       </c>
       <c r="N1" s="11">
@@ -1433,16 +1432,16 @@
       <c r="P1" s="11">
         <v>43544</v>
       </c>
-      <c r="Q1" s="30">
+      <c r="Q1" s="29">
         <v>43545</v>
       </c>
       <c r="R1" s="11">
         <v>43546</v>
       </c>
-      <c r="S1" s="30">
+      <c r="S1" s="29">
         <v>43547</v>
       </c>
-      <c r="T1" s="31">
+      <c r="T1" s="30">
         <v>43548</v>
       </c>
       <c r="U1" s="15">
@@ -1455,7 +1454,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
@@ -1464,7 +1463,7 @@
       <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="64" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="18"/>
@@ -1474,14 +1473,14 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="33"/>
+      <c r="N2" s="32"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="12"/>
-      <c r="U2" s="52" t="s">
+      <c r="U2" s="51" t="s">
         <v>51</v>
       </c>
       <c r="V2" s="2"/>
@@ -1491,14 +1490,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="45"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="56"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="17"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1506,14 +1505,14 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="32"/>
+      <c r="N3" s="31"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="53"/>
+      <c r="U3" s="52"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1521,14 +1520,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="45"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="17"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1536,14 +1535,14 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="32"/>
+      <c r="N4" s="31"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="13"/>
-      <c r="U4" s="53"/>
+      <c r="U4" s="52"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1551,13 +1550,13 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="45"/>
+      <c r="A5" s="68"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1565,14 +1564,14 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="34"/>
+      <c r="N5" s="33"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="53"/>
+      <c r="U5" s="52"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1580,7 +1579,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="68" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6"/>
@@ -1588,7 +1587,7 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="66" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="18"/>
@@ -1599,13 +1598,13 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="33"/>
+      <c r="O6" s="32"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="53"/>
+      <c r="U6" s="52"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1613,13 +1612,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="45"/>
+      <c r="A7" s="68"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="19"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1628,13 +1627,13 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="34"/>
+      <c r="O7" s="33"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="53"/>
+      <c r="U7" s="52"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1642,24 +1641,24 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="68" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="63" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="38"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1668,17 +1667,17 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="53"/>
+      <c r="U8" s="52"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="17"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1686,30 +1685,30 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="37"/>
+      <c r="N9" s="36"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="53"/>
+      <c r="U9" s="52"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="59"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="17"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="37"/>
+      <c r="L10" s="36"/>
       <c r="M10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1717,21 +1716,21 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="53"/>
+      <c r="U10" s="52"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="60"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="17"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="37"/>
+      <c r="K11" s="36"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1740,24 +1739,24 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="53"/>
+      <c r="U11" s="52"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="70" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="75"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1771,18 +1770,18 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="53"/>
+      <c r="U12" s="52"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="44"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1796,18 +1795,18 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="53"/>
+      <c r="U13" s="52"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="44"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1821,18 +1820,18 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="53"/>
+      <c r="U14" s="52"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="44"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="43"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1846,19 +1845,19 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="53"/>
+      <c r="U15" s="52"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="44"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="28"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1871,20 +1870,20 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="53"/>
+      <c r="U16" s="52"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="44"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="17"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="28"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1896,22 +1895,22 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="53"/>
+      <c r="U17" s="52"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="44"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="17"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1921,19 +1920,19 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="53"/>
+      <c r="U18" s="52"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="44"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="28"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1946,19 +1945,19 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="53"/>
+      <c r="U19" s="52"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="44"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="28"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1971,19 +1970,19 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="53"/>
+      <c r="U20" s="52"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="63"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="28"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1996,11 +1995,11 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="53"/>
+      <c r="U21" s="52"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="22" t="s">
         <v>44</v>
       </c>
@@ -2008,11 +2007,11 @@
       <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="57" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="42"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2025,20 +2024,20 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="53"/>
+      <c r="U22" s="52"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="68" t="s">
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="73" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="43"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2052,18 +2051,18 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="53"/>
+      <c r="U23" s="52"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="69"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="43"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2077,18 +2076,18 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="53"/>
+      <c r="U24" s="52"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="69"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="43"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="42"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2101,18 +2100,18 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="53"/>
+      <c r="U25" s="52"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="70"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="41"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -2126,24 +2125,24 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="53"/>
+      <c r="U26" s="52"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="44" t="s">
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="54" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -2155,18 +2154,18 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="53"/>
+      <c r="U27" s="52"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="44"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="26"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="43"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -2180,18 +2179,18 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="53"/>
+      <c r="U28" s="52"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="44"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="26"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2205,18 +2204,18 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="53"/>
+      <c r="U29" s="52"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="44"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="26"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="43"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -2230,24 +2229,24 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="53"/>
+      <c r="U30" s="52"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45" t="s">
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="54" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -2259,17 +2258,17 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="53"/>
+      <c r="U31" s="52"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="56"/>
+      <c r="F32" s="55"/>
       <c r="G32" s="26"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2284,17 +2283,17 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="53"/>
+      <c r="U32" s="52"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="56"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="26"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2309,17 +2308,17 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="53"/>
+      <c r="U33" s="52"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="26"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -2334,19 +2333,19 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="53"/>
+      <c r="U34" s="52"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45" t="s">
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="61" t="s">
+      <c r="F35" s="60" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="17"/>
@@ -2357,23 +2356,23 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="28"/>
+      <c r="O35" s="27"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="13"/>
-      <c r="U35" s="53"/>
+      <c r="U35" s="52"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="62"/>
+      <c r="F36" s="61"/>
       <c r="G36" s="17"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2382,23 +2381,23 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
-      <c r="O36" s="28"/>
+      <c r="O36" s="27"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="53"/>
+      <c r="U36" s="52"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="62"/>
+      <c r="F37" s="61"/>
       <c r="G37" s="17"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2407,23 +2406,23 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="28"/>
+      <c r="O37" s="27"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="53"/>
+      <c r="U37" s="52"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="17"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2432,25 +2431,25 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
-      <c r="O38" s="28"/>
+      <c r="O38" s="27"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="53"/>
+      <c r="U38" s="52"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45" t="s">
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="64" t="s">
+      <c r="F39" s="45" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="17"/>
@@ -2461,23 +2460,23 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
-      <c r="O39" s="29"/>
+      <c r="O39" s="28"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="53"/>
+      <c r="U39" s="52"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="65"/>
+      <c r="F40" s="46"/>
       <c r="G40" s="17"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2485,24 +2484,24 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="29"/>
+      <c r="N40" s="28"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="53"/>
+      <c r="U40" s="52"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="65"/>
+      <c r="F41" s="46"/>
       <c r="G41" s="17"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2510,24 +2509,24 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="29"/>
+      <c r="N41" s="28"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="53"/>
+      <c r="U41" s="52"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="66"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="17"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2535,29 +2534,29 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="29"/>
+      <c r="N42" s="28"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="53"/>
+      <c r="U42" s="52"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45" t="s">
+      <c r="A43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="58" t="s">
+      <c r="F43" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="37"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2570,18 +2569,18 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="13"/>
-      <c r="U43" s="53"/>
+      <c r="U43" s="52"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
+      <c r="A44" s="68"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="59"/>
-      <c r="G44" s="38"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="43"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -2595,18 +2594,18 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="13"/>
-      <c r="U44" s="53"/>
+      <c r="U44" s="52"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="59"/>
-      <c r="G45" s="38"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="43"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2620,18 +2619,18 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="13"/>
-      <c r="U45" s="53"/>
+      <c r="U45" s="52"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="38"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="43"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -2645,22 +2644,22 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="13"/>
-      <c r="U46" s="53"/>
+      <c r="U46" s="52"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="44" t="s">
+      <c r="A47" s="68"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="70" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="64" t="s">
+      <c r="F47" s="45" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="17"/>
-      <c r="H47" s="35"/>
+      <c r="H47" s="34"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -2673,20 +2672,20 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="13"/>
-      <c r="U47" s="53"/>
+      <c r="U47" s="52"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="74" t="s">
+      <c r="A48" s="68"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="48" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="65"/>
-      <c r="G48" s="35"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="34"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -2700,20 +2699,20 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="13"/>
-      <c r="U48" s="53"/>
+      <c r="U48" s="52"/>
     </row>
     <row r="49" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="74"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="48"/>
       <c r="E49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="65"/>
+      <c r="F49" s="46"/>
       <c r="G49" s="17"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="29"/>
+      <c r="I49" s="28"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -2725,21 +2724,21 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="13"/>
-      <c r="U49" s="53"/>
+      <c r="U49" s="52"/>
     </row>
     <row r="50" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="74"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="48"/>
       <c r="E50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="65"/>
+      <c r="F50" s="46"/>
       <c r="G50" s="17"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="29"/>
+      <c r="J50" s="28"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -2750,22 +2749,22 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="13"/>
-      <c r="U50" s="53"/>
+      <c r="U50" s="52"/>
     </row>
     <row r="51" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="74"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="48"/>
       <c r="E51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="65"/>
+      <c r="F51" s="46"/>
       <c r="G51" s="17"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="29"/>
+      <c r="K51" s="28"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -2775,23 +2774,23 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="13"/>
-      <c r="U51" s="53"/>
+      <c r="U51" s="52"/>
     </row>
     <row r="52" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="74"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="48"/>
       <c r="E52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="65"/>
+      <c r="F52" s="46"/>
       <c r="G52" s="17"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="29"/>
+      <c r="L52" s="28"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -2800,21 +2799,21 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="13"/>
-      <c r="U52" s="53"/>
+      <c r="U52" s="52"/>
     </row>
     <row r="53" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="44"/>
+      <c r="A53" s="68"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="70"/>
       <c r="D53" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="66"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="29"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="28"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -2827,24 +2826,24 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="13"/>
-      <c r="U53" s="53"/>
+      <c r="U53" s="52"/>
     </row>
     <row r="54" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="48" t="s">
+      <c r="A54" s="68"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="74" t="s">
+      <c r="D54" s="48" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="58" t="s">
+      <c r="F54" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="38"/>
+      <c r="G54" s="37"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -2858,19 +2857,19 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="13"/>
-      <c r="U54" s="53"/>
+      <c r="U54" s="52"/>
     </row>
     <row r="55" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="74"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="48"/>
       <c r="E55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="59"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="37"/>
+      <c r="H55" s="36"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -2883,20 +2882,20 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="13"/>
-      <c r="U55" s="53"/>
+      <c r="U55" s="52"/>
     </row>
     <row r="56" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="74"/>
+      <c r="A56" s="68"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="48"/>
       <c r="E56" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="59"/>
+      <c r="F56" s="58"/>
       <c r="G56" s="17"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="37"/>
+      <c r="I56" s="36"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -2908,20 +2907,20 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="13"/>
-      <c r="U56" s="53"/>
+      <c r="U56" s="52"/>
     </row>
     <row r="57" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="74"/>
+      <c r="A57" s="68"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="48"/>
       <c r="E57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="60"/>
+      <c r="F57" s="59"/>
       <c r="G57" s="17"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="37"/>
+      <c r="J57" s="36"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -2932,19 +2931,19 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="13"/>
-      <c r="U57" s="53"/>
+      <c r="U57" s="52"/>
     </row>
     <row r="58" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="49"/>
+      <c r="A58" s="68"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="72"/>
       <c r="D58" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="64" t="s">
+      <c r="F58" s="45" t="s">
         <v>56</v>
       </c>
       <c r="G58" s="17"/>
@@ -2961,20 +2960,20 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="13"/>
-      <c r="U58" s="53"/>
+      <c r="U58" s="52"/>
     </row>
     <row r="59" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="50" t="s">
+      <c r="A59" s="68"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="49" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="65"/>
-      <c r="G59" s="75"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="43"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -2988,20 +2987,20 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="13"/>
-      <c r="U59" s="53"/>
+      <c r="U59" s="52"/>
     </row>
     <row r="60" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A60" s="45"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="51"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="66"/>
+      <c r="F60" s="47"/>
       <c r="G60" s="17"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="29"/>
+      <c r="I60" s="28"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -3013,26 +3012,26 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="13"/>
-      <c r="U60" s="53"/>
+      <c r="U60" s="52"/>
     </row>
     <row r="61" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="44" t="s">
+      <c r="A61" s="68"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="70" t="s">
         <v>42</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="F61" s="54" t="s">
         <v>53</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -3042,22 +3041,22 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="13"/>
-      <c r="U61" s="53"/>
+      <c r="U61" s="52"/>
     </row>
     <row r="62" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="44"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="70"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="57"/>
+      <c r="F62" s="56"/>
       <c r="G62" s="17"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="32"/>
+      <c r="K62" s="31"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -3067,7 +3066,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="13"/>
-      <c r="U62" s="53"/>
+      <c r="U62" s="52"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
@@ -3141,8 +3140,8 @@
       <c r="CN62" s="2"/>
     </row>
     <row r="63" spans="1:92" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
+      <c r="A63" s="69"/>
+      <c r="B63" s="69"/>
       <c r="C63" s="10" t="s">
         <v>7</v>
       </c>
@@ -3160,13 +3159,13 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
-      <c r="O63" s="40"/>
+      <c r="O63" s="39"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="14"/>
-      <c r="U63" s="53"/>
+      <c r="U63" s="52"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
@@ -3240,7 +3239,7 @@
       <c r="CN63" s="2"/>
     </row>
     <row r="64" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="67" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="23" t="s">
@@ -3253,7 +3252,7 @@
       <c r="F64" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="76"/>
+      <c r="G64" s="44"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -3267,11 +3266,11 @@
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="12"/>
-      <c r="U64" s="53"/>
+      <c r="U64" s="52"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A65" s="45"/>
-      <c r="B65" s="44" t="s">
+      <c r="A65" s="68"/>
+      <c r="B65" s="70" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="4"/>
@@ -3279,7 +3278,7 @@
       <c r="E65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="61" t="s">
+      <c r="F65" s="60" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="17"/>
@@ -3289,24 +3288,24 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-      <c r="N65" s="28"/>
+      <c r="N65" s="27"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="13"/>
-      <c r="U65" s="53"/>
+      <c r="U65" s="52"/>
     </row>
     <row r="66" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="45"/>
-      <c r="B66" s="44"/>
+      <c r="A66" s="68"/>
+      <c r="B66" s="70"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="63"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="17"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3314,17 +3313,37 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="28"/>
+      <c r="N66" s="27"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="13"/>
-      <c r="U66" s="54"/>
+      <c r="U66" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B63"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A63"/>
     <mergeCell ref="F58:F60"/>
     <mergeCell ref="D48:D52"/>
     <mergeCell ref="D54:D57"/>
@@ -3341,26 +3360,6 @@
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="F22:F26"/>
     <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B63"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C23:C26"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高松チーム/必要書類/スケジュール/スケジュール.xlsx
+++ b/高松チーム/必要書類/スケジュール/スケジュール.xlsx
@@ -934,7 +934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -986,7 +986,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="4" applyBorder="1" applyAlignment="1"/>
@@ -994,6 +993,54 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,21 +1071,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,42 +1084,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1378,8 +1377,8 @@
   <dimension ref="A1:CN66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1454,7 +1453,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
@@ -1463,7 +1462,7 @@
       <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="56" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="18"/>
@@ -1480,7 +1479,7 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="12"/>
-      <c r="U2" s="51" t="s">
+      <c r="U2" s="66" t="s">
         <v>51</v>
       </c>
       <c r="V2" s="2"/>
@@ -1490,14 +1489,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="68"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="17"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1512,7 +1511,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="52"/>
+      <c r="U3" s="67"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1520,14 +1519,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="68"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="17"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1542,7 +1541,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="13"/>
-      <c r="U4" s="52"/>
+      <c r="U4" s="67"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1550,13 +1549,13 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="68"/>
+      <c r="A5" s="45"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="65"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1571,7 +1570,7 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="52"/>
+      <c r="U5" s="67"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1579,7 +1578,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6"/>
@@ -1587,7 +1586,7 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="59" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="18"/>
@@ -1604,7 +1603,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="52"/>
+      <c r="U6" s="67"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1612,13 +1611,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="68"/>
+      <c r="A7" s="45"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="65"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="19"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1633,7 +1632,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="52"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1641,24 +1640,24 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="74" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="38"/>
+      <c r="K8" s="37"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1667,17 +1666,17 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="52"/>
+      <c r="U8" s="67"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="17"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1692,17 +1691,17 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="52"/>
+      <c r="U9" s="67"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="17"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1716,16 +1715,16 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="52"/>
+      <c r="U10" s="67"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="17"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1739,24 +1738,24 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="52"/>
+      <c r="U11" s="67"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="47" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="43"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1770,18 +1769,18 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="52"/>
+      <c r="U12" s="67"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="70"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="43"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1795,18 +1794,18 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="52"/>
+      <c r="U13" s="67"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="70"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="43"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1820,18 +1819,18 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="52"/>
+      <c r="U14" s="67"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="70"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="43"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1845,17 +1844,17 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="52"/>
+      <c r="U15" s="67"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="70"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="61"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="17"/>
       <c r="H16" s="27"/>
       <c r="I16" s="4"/>
@@ -1870,17 +1869,17 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="52"/>
+      <c r="U16" s="67"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="70"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="61"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="17"/>
       <c r="H17" s="4"/>
       <c r="I17" s="27"/>
@@ -1895,17 +1894,17 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="52"/>
+      <c r="U17" s="67"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="70"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="61"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="17"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1920,17 +1919,17 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="52"/>
+      <c r="U18" s="67"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="70"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="61"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="17"/>
       <c r="H19" s="27"/>
       <c r="I19" s="4"/>
@@ -1945,17 +1944,17 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="52"/>
+      <c r="U19" s="67"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="70"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="61"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="17"/>
       <c r="H20" s="27"/>
       <c r="I20" s="4"/>
@@ -1970,17 +1969,17 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="52"/>
+      <c r="U20" s="67"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="70"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="17"/>
       <c r="H21" s="27"/>
       <c r="I21" s="4"/>
@@ -1995,11 +1994,11 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="52"/>
+      <c r="U21" s="67"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="22" t="s">
         <v>44</v>
       </c>
@@ -2007,11 +2006,11 @@
       <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="53" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="41"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2024,20 +2023,20 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="52"/>
+      <c r="U22" s="67"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="73" t="s">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="50" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="42"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2051,18 +2050,18 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="52"/>
+      <c r="U23" s="67"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="74"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="42"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2076,18 +2075,18 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="52"/>
+      <c r="U24" s="67"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="74"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="42"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="41"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2100,18 +2099,18 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="52"/>
+      <c r="U25" s="67"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="75"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="40"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -2125,19 +2124,19 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="52"/>
+      <c r="U26" s="67"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="70" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="47" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="54" t="s">
+      <c r="F27" s="69" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="17"/>
@@ -2154,18 +2153,18 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="52"/>
+      <c r="U27" s="67"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="70"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="43"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="42"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -2179,18 +2178,18 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="52"/>
+      <c r="U28" s="67"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="70"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="43"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2204,18 +2203,18 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="52"/>
+      <c r="U29" s="67"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="70"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="43"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="42"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -2229,19 +2228,19 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="52"/>
+      <c r="U30" s="67"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="69" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="17"/>
@@ -2258,17 +2257,17 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="52"/>
+      <c r="U31" s="67"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="55"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="26"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2283,18 +2282,18 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="52"/>
+      <c r="U32" s="67"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="26"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="42"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -2308,18 +2307,18 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="52"/>
+      <c r="U33" s="67"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="26"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="42"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -2333,19 +2332,19 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="52"/>
+      <c r="U34" s="67"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35" s="68"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="60" t="s">
+      <c r="F35" s="71" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="17"/>
@@ -2362,17 +2361,17 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="13"/>
-      <c r="U35" s="52"/>
+      <c r="U35" s="67"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="68"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="72"/>
       <c r="G36" s="17"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2387,17 +2386,17 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="52"/>
+      <c r="U36" s="67"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A37" s="68"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="61"/>
+      <c r="F37" s="72"/>
       <c r="G37" s="17"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2412,17 +2411,17 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="52"/>
+      <c r="U37" s="67"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A38" s="68"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="62"/>
+      <c r="F38" s="73"/>
       <c r="G38" s="17"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2437,19 +2436,19 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="52"/>
+      <c r="U38" s="67"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A39" s="68"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="45" t="s">
+      <c r="F39" s="60" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="17"/>
@@ -2466,17 +2465,17 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="52"/>
+      <c r="U39" s="67"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A40" s="68"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="46"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="17"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2491,17 +2490,17 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="52"/>
+      <c r="U40" s="67"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A41" s="68"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="46"/>
+      <c r="F41" s="61"/>
       <c r="G41" s="17"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2516,17 +2515,17 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="52"/>
+      <c r="U41" s="67"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="47"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="17"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2541,19 +2540,19 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="52"/>
+      <c r="U42" s="67"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A43" s="68"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="57" t="s">
+      <c r="F43" s="53" t="s">
         <v>54</v>
       </c>
       <c r="H43" s="36"/>
@@ -2569,18 +2568,18 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="13"/>
-      <c r="U43" s="52"/>
+      <c r="U43" s="67"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A44" s="68"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="43"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -2594,18 +2593,18 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="13"/>
-      <c r="U44" s="52"/>
+      <c r="U44" s="67"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A45" s="68"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="58"/>
-      <c r="G45" s="43"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="42"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2619,18 +2618,18 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="13"/>
-      <c r="U45" s="52"/>
+      <c r="U45" s="67"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A46" s="68"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="59"/>
-      <c r="G46" s="43"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="42"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -2644,18 +2643,18 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="13"/>
-      <c r="U46" s="52"/>
+      <c r="U46" s="67"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A47" s="68"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="70" t="s">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="47" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F47" s="60" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="17"/>
@@ -2672,19 +2671,19 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="13"/>
-      <c r="U47" s="52"/>
+      <c r="U47" s="67"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A48" s="68"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="48" t="s">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="63" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="46"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="34"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -2699,17 +2698,17 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="13"/>
-      <c r="U48" s="52"/>
+      <c r="U48" s="67"/>
     </row>
     <row r="49" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A49" s="68"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="48"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="63"/>
       <c r="E49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="46"/>
+      <c r="F49" s="61"/>
       <c r="G49" s="17"/>
       <c r="H49" s="4"/>
       <c r="I49" s="28"/>
@@ -2724,17 +2723,17 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="13"/>
-      <c r="U49" s="52"/>
+      <c r="U49" s="67"/>
     </row>
     <row r="50" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A50" s="68"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="48"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="46"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="17"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -2749,17 +2748,17 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="13"/>
-      <c r="U50" s="52"/>
+      <c r="U50" s="67"/>
     </row>
     <row r="51" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A51" s="68"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="48"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="63"/>
       <c r="E51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="46"/>
+      <c r="F51" s="61"/>
       <c r="G51" s="17"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -2774,17 +2773,17 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="13"/>
-      <c r="U51" s="52"/>
+      <c r="U51" s="67"/>
     </row>
     <row r="52" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A52" s="68"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="48"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="46"/>
+      <c r="F52" s="61"/>
       <c r="G52" s="17"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2799,19 +2798,19 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="13"/>
-      <c r="U52" s="52"/>
+      <c r="U52" s="67"/>
     </row>
     <row r="53" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A53" s="68"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="70"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="47"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="35"/>
       <c r="H53" s="28"/>
       <c r="I53" s="4"/>
@@ -2826,24 +2825,24 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="13"/>
-      <c r="U53" s="52"/>
+      <c r="U53" s="67"/>
     </row>
     <row r="54" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A54" s="68"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="71" t="s">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="48" t="s">
+      <c r="D54" s="63" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="57" t="s">
+      <c r="F54" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="37"/>
+      <c r="G54" s="42"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -2857,17 +2856,17 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="13"/>
-      <c r="U54" s="52"/>
+      <c r="U54" s="67"/>
     </row>
     <row r="55" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A55" s="68"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="48"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="58"/>
+      <c r="F55" s="54"/>
       <c r="G55" s="17"/>
       <c r="H55" s="36"/>
       <c r="I55" s="4"/>
@@ -2882,17 +2881,17 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="13"/>
-      <c r="U55" s="52"/>
+      <c r="U55" s="67"/>
     </row>
     <row r="56" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A56" s="68"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="48"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="58"/>
+      <c r="F56" s="54"/>
       <c r="G56" s="17"/>
       <c r="H56" s="4"/>
       <c r="I56" s="36"/>
@@ -2907,17 +2906,17 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="13"/>
-      <c r="U56" s="52"/>
+      <c r="U56" s="67"/>
     </row>
     <row r="57" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A57" s="68"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="48"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="63"/>
       <c r="E57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="59"/>
+      <c r="F57" s="55"/>
       <c r="G57" s="17"/>
       <c r="I57" s="4"/>
       <c r="J57" s="36"/>
@@ -2931,19 +2930,19 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="13"/>
-      <c r="U57" s="52"/>
+      <c r="U57" s="67"/>
     </row>
     <row r="58" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A58" s="68"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="72"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="45" t="s">
+      <c r="F58" s="60" t="s">
         <v>56</v>
       </c>
       <c r="G58" s="17"/>
@@ -2960,20 +2959,20 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="13"/>
-      <c r="U58" s="52"/>
+      <c r="U58" s="67"/>
     </row>
     <row r="59" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A59" s="68"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="49" t="s">
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="64" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="46"/>
-      <c r="G59" s="43"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -2987,17 +2986,17 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="13"/>
-      <c r="U59" s="52"/>
+      <c r="U59" s="67"/>
     </row>
     <row r="60" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A60" s="68"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="50"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="65"/>
       <c r="E60" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="47"/>
+      <c r="F60" s="62"/>
       <c r="G60" s="17"/>
       <c r="H60" s="4"/>
       <c r="I60" s="28"/>
@@ -3012,19 +3011,19 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="13"/>
-      <c r="U60" s="52"/>
+      <c r="U60" s="67"/>
     </row>
     <row r="61" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A61" s="68"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="70" t="s">
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="47" t="s">
         <v>42</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="54" t="s">
+      <c r="F61" s="69" t="s">
         <v>53</v>
       </c>
       <c r="G61" s="17"/>
@@ -3041,17 +3040,17 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="13"/>
-      <c r="U61" s="52"/>
+      <c r="U61" s="67"/>
     </row>
     <row r="62" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A62" s="68"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="70"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="56"/>
+      <c r="F62" s="70"/>
       <c r="G62" s="17"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3066,7 +3065,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="13"/>
-      <c r="U62" s="52"/>
+      <c r="U62" s="67"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
@@ -3140,8 +3139,8 @@
       <c r="CN62" s="2"/>
     </row>
     <row r="63" spans="1:92" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="69"/>
-      <c r="B63" s="69"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="10" t="s">
         <v>7</v>
       </c>
@@ -3159,13 +3158,13 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
-      <c r="O63" s="39"/>
+      <c r="O63" s="38"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="14"/>
-      <c r="U63" s="52"/>
+      <c r="U63" s="67"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
@@ -3239,7 +3238,7 @@
       <c r="CN63" s="2"/>
     </row>
     <row r="64" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A64" s="67" t="s">
+      <c r="A64" s="44" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="23" t="s">
@@ -3252,7 +3251,7 @@
       <c r="F64" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="44"/>
+      <c r="G64" s="43"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -3266,11 +3265,11 @@
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="12"/>
-      <c r="U64" s="52"/>
+      <c r="U64" s="67"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A65" s="68"/>
-      <c r="B65" s="70" t="s">
+      <c r="A65" s="45"/>
+      <c r="B65" s="47" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="4"/>
@@ -3278,7 +3277,7 @@
       <c r="E65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="60" t="s">
+      <c r="F65" s="71" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="17"/>
@@ -3295,17 +3294,17 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="13"/>
-      <c r="U65" s="52"/>
+      <c r="U65" s="67"/>
     </row>
     <row r="66" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="68"/>
-      <c r="B66" s="70"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="62"/>
+      <c r="F66" s="73"/>
       <c r="G66" s="17"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3320,10 +3319,31 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="13"/>
-      <c r="U66" s="53"/>
+      <c r="U66" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="U2:U66"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F12:F21"/>
+    <mergeCell ref="F47:F53"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A63"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D59:D60"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B63"/>
@@ -3339,27 +3359,6 @@
     <mergeCell ref="C54:C60"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="C23:C26"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A63"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="U2:U66"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F12:F21"/>
-    <mergeCell ref="F47:F53"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="F65:F66"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高松チーム/必要書類/スケジュール/スケジュール.xlsx
+++ b/高松チーム/必要書類/スケジュール/スケジュール.xlsx
@@ -934,7 +934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -993,6 +993,63 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1002,6 +1059,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,72 +1086,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - アクセント 1" xfId="3" builtinId="30"/>
@@ -1377,8 +1378,8 @@
   <dimension ref="A1:CN66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1453,7 +1454,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="63" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
@@ -1462,7 +1463,7 @@
       <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="60" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="18"/>
@@ -1479,7 +1480,7 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="12"/>
-      <c r="U2" s="66" t="s">
+      <c r="U2" s="44" t="s">
         <v>51</v>
       </c>
       <c r="V2" s="2"/>
@@ -1489,14 +1490,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="45"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="17"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1511,7 +1512,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="67"/>
+      <c r="U3" s="45"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1519,14 +1520,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="45"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="57"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="17"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1541,7 +1542,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="13"/>
-      <c r="U4" s="67"/>
+      <c r="U4" s="45"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1549,13 +1550,13 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="45"/>
+      <c r="A5" s="64"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="58"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1570,7 +1571,7 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="67"/>
+      <c r="U5" s="45"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1578,7 +1579,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="64" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6"/>
@@ -1586,7 +1587,7 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="62" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="18"/>
@@ -1603,7 +1604,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="67"/>
+      <c r="U6" s="45"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1611,13 +1612,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="45"/>
+      <c r="A7" s="64"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="19"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1632,7 +1633,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="45"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1640,17 +1641,17 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="64" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="59" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="18"/>
@@ -1666,17 +1667,17 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="17"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1691,17 +1692,17 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="54"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="17"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1715,16 +1716,16 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="17"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1738,21 +1739,21 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="45"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="69" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="53" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="42"/>
@@ -1769,17 +1770,17 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="67"/>
+      <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="47"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="42"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1794,17 +1795,17 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="45"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="47"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="42"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1819,17 +1820,17 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="45"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="47"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="42"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1844,17 +1845,17 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="45"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="47"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="17"/>
       <c r="H16" s="27"/>
       <c r="I16" s="4"/>
@@ -1869,17 +1870,17 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="45"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="47"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="17"/>
       <c r="H17" s="4"/>
       <c r="I17" s="27"/>
@@ -1894,17 +1895,17 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="67"/>
+      <c r="U17" s="45"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="47"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="17"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1919,17 +1920,17 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="67"/>
+      <c r="U18" s="45"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="47"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="17"/>
       <c r="H19" s="27"/>
       <c r="I19" s="4"/>
@@ -1944,17 +1945,17 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="67"/>
+      <c r="U19" s="45"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="47"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="17"/>
       <c r="H20" s="27"/>
       <c r="I20" s="4"/>
@@ -1969,17 +1970,17 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="67"/>
+      <c r="U20" s="45"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="47"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="73"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="17"/>
       <c r="H21" s="27"/>
       <c r="I21" s="4"/>
@@ -1994,11 +1995,11 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="67"/>
+      <c r="U21" s="45"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="22" t="s">
         <v>44</v>
       </c>
@@ -2006,7 +2007,7 @@
       <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="50" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="17"/>
@@ -2023,19 +2024,19 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="67"/>
+      <c r="U22" s="45"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="50" t="s">
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="72" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="54"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="41"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -2050,17 +2051,17 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="67"/>
+      <c r="U23" s="45"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="51"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="54"/>
+      <c r="F24" s="51"/>
       <c r="G24" s="41"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -2075,17 +2076,17 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="67"/>
+      <c r="U24" s="45"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="51"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="54"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="41"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -2099,17 +2100,17 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="67"/>
+      <c r="U25" s="45"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="52"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="55"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="39"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -2124,19 +2125,19 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="67"/>
+      <c r="U26" s="45"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="47" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="69" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="47" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="17"/>
@@ -2153,17 +2154,17 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="67"/>
+      <c r="U27" s="45"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="47"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="57"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="42"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2178,17 +2179,17 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="67"/>
+      <c r="U28" s="45"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="47"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="57"/>
+      <c r="F29" s="48"/>
       <c r="G29" s="42"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2203,17 +2204,17 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="67"/>
+      <c r="U29" s="45"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="47"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="70"/>
+      <c r="F30" s="49"/>
       <c r="G30" s="42"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2228,19 +2229,19 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="67"/>
+      <c r="U30" s="45"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="69" t="s">
+      <c r="F31" s="47" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="17"/>
@@ -2257,17 +2258,17 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="67"/>
+      <c r="U31" s="45"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="57"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="26"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2282,17 +2283,17 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="67"/>
+      <c r="U32" s="45"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="48"/>
       <c r="G33" s="42"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2307,17 +2308,17 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="67"/>
+      <c r="U33" s="45"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="70"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="42"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -2332,19 +2333,19 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="67"/>
+      <c r="U34" s="45"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45" t="s">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="53" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="17"/>
@@ -2361,17 +2362,17 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="13"/>
-      <c r="U35" s="67"/>
+      <c r="U35" s="45"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="72"/>
+      <c r="F36" s="54"/>
       <c r="G36" s="17"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2386,17 +2387,17 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="67"/>
+      <c r="U36" s="45"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="72"/>
+      <c r="F37" s="54"/>
       <c r="G37" s="17"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2411,17 +2412,17 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="67"/>
+      <c r="U37" s="45"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="73"/>
+      <c r="F38" s="55"/>
       <c r="G38" s="17"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2436,19 +2437,19 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="67"/>
+      <c r="U38" s="45"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="60" t="s">
+      <c r="F39" s="56" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="17"/>
@@ -2465,17 +2466,17 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="67"/>
+      <c r="U39" s="45"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="61"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="17"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2490,17 +2491,17 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="67"/>
+      <c r="U40" s="45"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="61"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="17"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2515,17 +2516,17 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="67"/>
+      <c r="U41" s="45"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="62"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="17"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2540,22 +2541,22 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="67"/>
+      <c r="U42" s="45"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45" t="s">
+      <c r="A43" s="64"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="53" t="s">
+      <c r="F43" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="36"/>
+      <c r="H43" s="75"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2568,17 +2569,17 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="13"/>
-      <c r="U43" s="67"/>
+      <c r="U43" s="45"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="54"/>
+      <c r="F44" s="51"/>
       <c r="G44" s="42"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -2593,17 +2594,17 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="13"/>
-      <c r="U44" s="67"/>
+      <c r="U44" s="45"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="54"/>
+      <c r="F45" s="51"/>
       <c r="G45" s="42"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -2618,17 +2619,17 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="13"/>
-      <c r="U45" s="67"/>
+      <c r="U45" s="45"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="55"/>
+      <c r="F46" s="52"/>
       <c r="G46" s="42"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -2643,18 +2644,18 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="13"/>
-      <c r="U46" s="67"/>
+      <c r="U46" s="45"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="47" t="s">
+      <c r="A47" s="64"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="69" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="60" t="s">
+      <c r="F47" s="56" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="17"/>
@@ -2671,19 +2672,19 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="13"/>
-      <c r="U47" s="67"/>
+      <c r="U47" s="45"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="63" t="s">
+      <c r="A48" s="64"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="66" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="61"/>
+      <c r="F48" s="57"/>
       <c r="G48" s="34"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -2698,17 +2699,17 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="13"/>
-      <c r="U48" s="67"/>
+      <c r="U48" s="45"/>
     </row>
     <row r="49" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="63"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="66"/>
       <c r="E49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="61"/>
+      <c r="F49" s="57"/>
       <c r="G49" s="17"/>
       <c r="H49" s="4"/>
       <c r="I49" s="28"/>
@@ -2723,17 +2724,17 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="13"/>
-      <c r="U49" s="67"/>
+      <c r="U49" s="45"/>
     </row>
     <row r="50" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="63"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="66"/>
       <c r="E50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="61"/>
+      <c r="F50" s="57"/>
       <c r="G50" s="17"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -2748,17 +2749,17 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="13"/>
-      <c r="U50" s="67"/>
+      <c r="U50" s="45"/>
     </row>
     <row r="51" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="63"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="66"/>
       <c r="E51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="61"/>
+      <c r="F51" s="57"/>
       <c r="G51" s="17"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -2773,17 +2774,17 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="13"/>
-      <c r="U51" s="67"/>
+      <c r="U51" s="45"/>
     </row>
     <row r="52" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="63"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="66"/>
       <c r="E52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="61"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="17"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2798,19 +2799,19 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="13"/>
-      <c r="U52" s="67"/>
+      <c r="U52" s="45"/>
     </row>
     <row r="53" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="47"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="69"/>
       <c r="D53" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="62"/>
+      <c r="F53" s="58"/>
       <c r="G53" s="35"/>
       <c r="H53" s="28"/>
       <c r="I53" s="4"/>
@@ -2825,21 +2826,21 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="13"/>
-      <c r="U53" s="67"/>
+      <c r="U53" s="45"/>
     </row>
     <row r="54" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="48" t="s">
+      <c r="A54" s="64"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="63" t="s">
+      <c r="D54" s="66" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="53" t="s">
+      <c r="F54" s="50" t="s">
         <v>54</v>
       </c>
       <c r="G54" s="42"/>
@@ -2856,17 +2857,17 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="13"/>
-      <c r="U54" s="67"/>
+      <c r="U54" s="45"/>
     </row>
     <row r="55" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="63"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="66"/>
       <c r="E55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="54"/>
+      <c r="F55" s="51"/>
       <c r="G55" s="17"/>
       <c r="H55" s="36"/>
       <c r="I55" s="4"/>
@@ -2881,17 +2882,17 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="13"/>
-      <c r="U55" s="67"/>
+      <c r="U55" s="45"/>
     </row>
     <row r="56" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="63"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="66"/>
       <c r="E56" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="54"/>
+      <c r="F56" s="51"/>
       <c r="G56" s="17"/>
       <c r="H56" s="4"/>
       <c r="I56" s="36"/>
@@ -2906,17 +2907,17 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="13"/>
-      <c r="U56" s="67"/>
+      <c r="U56" s="45"/>
     </row>
     <row r="57" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="63"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="66"/>
       <c r="E57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="55"/>
+      <c r="F57" s="52"/>
       <c r="G57" s="17"/>
       <c r="I57" s="4"/>
       <c r="J57" s="36"/>
@@ -2930,19 +2931,19 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="13"/>
-      <c r="U57" s="67"/>
+      <c r="U57" s="45"/>
     </row>
     <row r="58" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="49"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="60" t="s">
+      <c r="F58" s="56" t="s">
         <v>56</v>
       </c>
       <c r="G58" s="17"/>
@@ -2959,19 +2960,19 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="13"/>
-      <c r="U58" s="67"/>
+      <c r="U58" s="45"/>
     </row>
     <row r="59" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="64" t="s">
+      <c r="A59" s="64"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="67" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="61"/>
+      <c r="F59" s="57"/>
       <c r="G59" s="42"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -2986,17 +2987,17 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="13"/>
-      <c r="U59" s="67"/>
+      <c r="U59" s="45"/>
     </row>
     <row r="60" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A60" s="45"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="65"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="68"/>
       <c r="E60" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="62"/>
+      <c r="F60" s="58"/>
       <c r="G60" s="17"/>
       <c r="H60" s="4"/>
       <c r="I60" s="28"/>
@@ -3011,19 +3012,19 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="13"/>
-      <c r="U60" s="67"/>
+      <c r="U60" s="45"/>
     </row>
     <row r="61" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="47" t="s">
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="69" t="s">
         <v>42</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="69" t="s">
+      <c r="F61" s="47" t="s">
         <v>53</v>
       </c>
       <c r="G61" s="17"/>
@@ -3040,17 +3041,17 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="13"/>
-      <c r="U61" s="67"/>
+      <c r="U61" s="45"/>
     </row>
     <row r="62" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="47"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="69"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="70"/>
+      <c r="F62" s="49"/>
       <c r="G62" s="17"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3065,7 +3066,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="13"/>
-      <c r="U62" s="67"/>
+      <c r="U62" s="45"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
@@ -3139,8 +3140,8 @@
       <c r="CN62" s="2"/>
     </row>
     <row r="63" spans="1:92" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="10" t="s">
         <v>7</v>
       </c>
@@ -3164,7 +3165,7 @@
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="14"/>
-      <c r="U63" s="67"/>
+      <c r="U63" s="45"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
@@ -3238,7 +3239,7 @@
       <c r="CN63" s="2"/>
     </row>
     <row r="64" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="23" t="s">
@@ -3265,11 +3266,11 @@
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="12"/>
-      <c r="U64" s="67"/>
+      <c r="U64" s="45"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A65" s="45"/>
-      <c r="B65" s="47" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="69" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="4"/>
@@ -3277,7 +3278,7 @@
       <c r="E65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="71" t="s">
+      <c r="F65" s="53" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="17"/>
@@ -3294,17 +3295,17 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="13"/>
-      <c r="U65" s="67"/>
+      <c r="U65" s="45"/>
     </row>
     <row r="66" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="45"/>
-      <c r="B66" s="47"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="69"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="73"/>
+      <c r="F66" s="55"/>
       <c r="G66" s="17"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3319,10 +3320,31 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="13"/>
-      <c r="U66" s="68"/>
+      <c r="U66" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B63"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A63"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D59:D60"/>
     <mergeCell ref="U2:U66"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="F31:F34"/>
@@ -3338,27 +3360,6 @@
     <mergeCell ref="F54:F57"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A63"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B63"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C23:C26"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高松チーム/必要書類/スケジュール/スケジュール.xlsx
+++ b/高松チーム/必要書類/スケジュール/スケジュール.xlsx
@@ -993,6 +993,52 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1029,15 +1075,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1050,43 +1087,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - アクセント 1" xfId="3" builtinId="30"/>
@@ -1378,8 +1378,8 @@
   <dimension ref="A1:CN66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1454,7 +1454,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
@@ -1463,7 +1463,7 @@
       <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="73" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="18"/>
@@ -1480,7 +1480,7 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="12"/>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="60" t="s">
         <v>51</v>
       </c>
       <c r="V2" s="2"/>
@@ -1490,14 +1490,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="64"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="17"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1512,7 +1512,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="45"/>
+      <c r="U3" s="61"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1520,14 +1520,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="64"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="17"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1542,7 +1542,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="13"/>
-      <c r="U4" s="45"/>
+      <c r="U4" s="61"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1550,13 +1550,13 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="64"/>
+      <c r="A5" s="46"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="61"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1571,7 +1571,7 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="45"/>
+      <c r="U5" s="61"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1579,7 +1579,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6"/>
@@ -1587,7 +1587,7 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="75" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="18"/>
@@ -1604,7 +1604,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="45"/>
+      <c r="U6" s="61"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1612,13 +1612,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="64"/>
+      <c r="A7" s="46"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="61"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="19"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1633,7 +1633,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="45"/>
+      <c r="U7" s="61"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1641,17 +1641,17 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="46" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="72" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="18"/>
@@ -1667,17 +1667,17 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="45"/>
+      <c r="U8" s="61"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="17"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1692,17 +1692,17 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="45"/>
+      <c r="U9" s="61"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="51"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="17"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1716,16 +1716,16 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="45"/>
+      <c r="U10" s="61"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="52"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="17"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1739,21 +1739,21 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="45"/>
+      <c r="U11" s="61"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="48" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="69" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="42"/>
@@ -1770,17 +1770,17 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="45"/>
+      <c r="U12" s="61"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="69"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="54"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="42"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1795,17 +1795,17 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="45"/>
+      <c r="U13" s="61"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="69"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="54"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="42"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1820,17 +1820,17 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="45"/>
+      <c r="U14" s="61"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="69"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="42"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1845,17 +1845,17 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="45"/>
+      <c r="U15" s="61"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="69"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="54"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="17"/>
       <c r="H16" s="27"/>
       <c r="I16" s="4"/>
@@ -1870,17 +1870,17 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="45"/>
+      <c r="U16" s="61"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="69"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="54"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="17"/>
       <c r="H17" s="4"/>
       <c r="I17" s="27"/>
@@ -1895,17 +1895,17 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="45"/>
+      <c r="U17" s="61"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="69"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="54"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="17"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1920,17 +1920,17 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="45"/>
+      <c r="U18" s="61"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="69"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="54"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="17"/>
       <c r="H19" s="27"/>
       <c r="I19" s="4"/>
@@ -1945,17 +1945,17 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="45"/>
+      <c r="U19" s="61"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="69"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="54"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="17"/>
       <c r="H20" s="27"/>
       <c r="I20" s="4"/>
@@ -1970,17 +1970,17 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="45"/>
+      <c r="U20" s="61"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="69"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="55"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="17"/>
       <c r="H21" s="27"/>
       <c r="I21" s="4"/>
@@ -1995,11 +1995,11 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="45"/>
+      <c r="U21" s="61"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="22" t="s">
         <v>44</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="66" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="17"/>
@@ -2024,19 +2024,19 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="45"/>
+      <c r="U22" s="61"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="72" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="51" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="51"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="41"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -2051,17 +2051,17 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="45"/>
+      <c r="U23" s="61"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="73"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="51"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="41"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -2076,17 +2076,17 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="45"/>
+      <c r="U24" s="61"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="73"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="51"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="41"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -2100,17 +2100,17 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="45"/>
+      <c r="U25" s="61"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="74"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="52"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="39"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -2125,19 +2125,19 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="45"/>
+      <c r="U26" s="61"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="69" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="48" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="63" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="17"/>
@@ -2154,17 +2154,17 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="45"/>
+      <c r="U27" s="61"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="69"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="48"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="42"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2179,17 +2179,17 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="45"/>
+      <c r="U28" s="61"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="69"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="48"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="42"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2204,17 +2204,17 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="45"/>
+      <c r="U29" s="61"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="69"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="49"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="42"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2229,19 +2229,19 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="45"/>
+      <c r="U30" s="61"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A31" s="64"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="63" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="17"/>
@@ -2258,17 +2258,17 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="45"/>
+      <c r="U31" s="61"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="26"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2283,17 +2283,17 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="45"/>
+      <c r="U32" s="61"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="48"/>
+      <c r="F33" s="64"/>
       <c r="G33" s="42"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2308,17 +2308,17 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="45"/>
+      <c r="U33" s="61"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="65"/>
       <c r="G34" s="42"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -2333,19 +2333,19 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="45"/>
+      <c r="U34" s="61"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64" t="s">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="69" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="17"/>
@@ -2362,17 +2362,17 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="13"/>
-      <c r="U35" s="45"/>
+      <c r="U35" s="61"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="54"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="17"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2387,17 +2387,17 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="45"/>
+      <c r="U36" s="61"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A37" s="64"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="54"/>
+      <c r="F37" s="70"/>
       <c r="G37" s="17"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2412,17 +2412,17 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="45"/>
+      <c r="U37" s="61"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="55"/>
+      <c r="F38" s="71"/>
       <c r="G38" s="17"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2437,19 +2437,19 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="45"/>
+      <c r="U38" s="61"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64" t="s">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="56" t="s">
+      <c r="F39" s="54" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="17"/>
@@ -2466,17 +2466,17 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="45"/>
+      <c r="U39" s="61"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="57"/>
+      <c r="F40" s="55"/>
       <c r="G40" s="17"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2491,17 +2491,17 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="45"/>
+      <c r="U40" s="61"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="57"/>
+      <c r="F41" s="55"/>
       <c r="G41" s="17"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2516,17 +2516,17 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="45"/>
+      <c r="U41" s="61"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="58"/>
+      <c r="F42" s="56"/>
       <c r="G42" s="17"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2541,22 +2541,22 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="45"/>
+      <c r="U42" s="61"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64" t="s">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="75"/>
+      <c r="H43" s="44"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2569,17 +2569,17 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="13"/>
-      <c r="U43" s="45"/>
+      <c r="U43" s="61"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="51"/>
+      <c r="F44" s="67"/>
       <c r="G44" s="42"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -2594,17 +2594,17 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="13"/>
-      <c r="U44" s="45"/>
+      <c r="U44" s="61"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="51"/>
+      <c r="F45" s="67"/>
       <c r="G45" s="42"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -2619,17 +2619,17 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="13"/>
-      <c r="U45" s="45"/>
+      <c r="U45" s="61"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="52"/>
+      <c r="F46" s="68"/>
       <c r="G46" s="42"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -2644,18 +2644,18 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="13"/>
-      <c r="U46" s="45"/>
+      <c r="U46" s="61"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A47" s="64"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="69" t="s">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="48" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="56" t="s">
+      <c r="F47" s="54" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="17"/>
@@ -2672,19 +2672,19 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="13"/>
-      <c r="U47" s="45"/>
+      <c r="U47" s="61"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A48" s="64"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="66" t="s">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="57" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="57"/>
+      <c r="F48" s="55"/>
       <c r="G48" s="34"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -2699,17 +2699,17 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="13"/>
-      <c r="U48" s="45"/>
+      <c r="U48" s="61"/>
     </row>
     <row r="49" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A49" s="64"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="66"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="57"/>
+      <c r="F49" s="55"/>
       <c r="G49" s="17"/>
       <c r="H49" s="4"/>
       <c r="I49" s="28"/>
@@ -2724,17 +2724,17 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="13"/>
-      <c r="U49" s="45"/>
+      <c r="U49" s="61"/>
     </row>
     <row r="50" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="66"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="57"/>
       <c r="E50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="57"/>
+      <c r="F50" s="55"/>
       <c r="G50" s="17"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -2749,17 +2749,17 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="13"/>
-      <c r="U50" s="45"/>
+      <c r="U50" s="61"/>
     </row>
     <row r="51" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A51" s="64"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="66"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="57"/>
       <c r="E51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="57"/>
+      <c r="F51" s="55"/>
       <c r="G51" s="17"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -2774,17 +2774,17 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="13"/>
-      <c r="U51" s="45"/>
+      <c r="U51" s="61"/>
     </row>
     <row r="52" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="66"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="57"/>
       <c r="E52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="57"/>
+      <c r="F52" s="55"/>
       <c r="G52" s="17"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2799,19 +2799,19 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="13"/>
-      <c r="U52" s="45"/>
+      <c r="U52" s="61"/>
     </row>
     <row r="53" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A53" s="64"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="69"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="48"/>
       <c r="D53" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="58"/>
+      <c r="F53" s="56"/>
       <c r="G53" s="35"/>
       <c r="H53" s="28"/>
       <c r="I53" s="4"/>
@@ -2826,21 +2826,21 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="13"/>
-      <c r="U53" s="45"/>
+      <c r="U53" s="61"/>
     </row>
     <row r="54" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A54" s="64"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="70" t="s">
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="66" t="s">
+      <c r="D54" s="57" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="50" t="s">
+      <c r="F54" s="66" t="s">
         <v>54</v>
       </c>
       <c r="G54" s="42"/>
@@ -2857,19 +2857,19 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="13"/>
-      <c r="U54" s="45"/>
+      <c r="U54" s="61"/>
     </row>
     <row r="55" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A55" s="64"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="66"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="51"/>
+      <c r="F55" s="67"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="36"/>
+      <c r="H55" s="44"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -2882,17 +2882,17 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="13"/>
-      <c r="U55" s="45"/>
+      <c r="U55" s="61"/>
     </row>
     <row r="56" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A56" s="64"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="66"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="57"/>
       <c r="E56" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="51"/>
+      <c r="F56" s="67"/>
       <c r="G56" s="17"/>
       <c r="H56" s="4"/>
       <c r="I56" s="36"/>
@@ -2907,17 +2907,17 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="13"/>
-      <c r="U56" s="45"/>
+      <c r="U56" s="61"/>
     </row>
     <row r="57" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A57" s="64"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="66"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="52"/>
+      <c r="F57" s="68"/>
       <c r="G57" s="17"/>
       <c r="I57" s="4"/>
       <c r="J57" s="36"/>
@@ -2931,19 +2931,19 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="13"/>
-      <c r="U57" s="45"/>
+      <c r="U57" s="61"/>
     </row>
     <row r="58" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A58" s="64"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="71"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="50"/>
       <c r="D58" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="56" t="s">
+      <c r="F58" s="54" t="s">
         <v>56</v>
       </c>
       <c r="G58" s="17"/>
@@ -2960,19 +2960,19 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="13"/>
-      <c r="U58" s="45"/>
+      <c r="U58" s="61"/>
     </row>
     <row r="59" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A59" s="64"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="67" t="s">
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="58" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="57"/>
+      <c r="F59" s="55"/>
       <c r="G59" s="42"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -2987,17 +2987,17 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="13"/>
-      <c r="U59" s="45"/>
+      <c r="U59" s="61"/>
     </row>
     <row r="60" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A60" s="64"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="68"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="58"/>
+      <c r="F60" s="56"/>
       <c r="G60" s="17"/>
       <c r="H60" s="4"/>
       <c r="I60" s="28"/>
@@ -3012,19 +3012,19 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="13"/>
-      <c r="U60" s="45"/>
+      <c r="U60" s="61"/>
     </row>
     <row r="61" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A61" s="64"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="69" t="s">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="48" t="s">
         <v>42</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="47" t="s">
+      <c r="F61" s="63" t="s">
         <v>53</v>
       </c>
       <c r="G61" s="17"/>
@@ -3041,17 +3041,17 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="13"/>
-      <c r="U61" s="45"/>
+      <c r="U61" s="61"/>
     </row>
     <row r="62" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A62" s="64"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="69"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="48"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="49"/>
+      <c r="F62" s="65"/>
       <c r="G62" s="17"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3066,7 +3066,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="13"/>
-      <c r="U62" s="45"/>
+      <c r="U62" s="61"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
@@ -3140,8 +3140,8 @@
       <c r="CN62" s="2"/>
     </row>
     <row r="63" spans="1:92" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="10" t="s">
         <v>7</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="14"/>
-      <c r="U63" s="45"/>
+      <c r="U63" s="61"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
@@ -3239,7 +3239,7 @@
       <c r="CN63" s="2"/>
     </row>
     <row r="64" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="45" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="23" t="s">
@@ -3266,11 +3266,11 @@
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="12"/>
-      <c r="U64" s="45"/>
+      <c r="U64" s="61"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A65" s="64"/>
-      <c r="B65" s="69" t="s">
+      <c r="A65" s="46"/>
+      <c r="B65" s="48" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="4"/>
@@ -3278,7 +3278,7 @@
       <c r="E65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="53" t="s">
+      <c r="F65" s="69" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="17"/>
@@ -3295,17 +3295,17 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="13"/>
-      <c r="U65" s="45"/>
+      <c r="U65" s="61"/>
     </row>
     <row r="66" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="64"/>
-      <c r="B66" s="69"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="55"/>
+      <c r="F66" s="71"/>
       <c r="G66" s="17"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3320,10 +3320,31 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="13"/>
-      <c r="U66" s="46"/>
+      <c r="U66" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="U2:U66"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F12:F21"/>
+    <mergeCell ref="F47:F53"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A63"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D59:D60"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B63"/>
@@ -3339,27 +3360,6 @@
     <mergeCell ref="C54:C60"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="C23:C26"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A63"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="U2:U66"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F12:F21"/>
-    <mergeCell ref="F47:F53"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高松チーム/必要書類/スケジュール/スケジュール.xlsx
+++ b/高松チーム/必要書類/スケジュール/スケジュール.xlsx
@@ -22,36 +22,36 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>背景</t>
     <rPh sb="0" eb="2">
       <t>ハイケイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>お札</t>
     <rPh sb="1" eb="2">
       <t>フダ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>シーン移行UI</t>
     <rPh sb="3" eb="5">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>チュートリアル</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>プレイヤー</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>説明UI</t>
@@ -64,57 +64,57 @@
     <rPh sb="2" eb="4">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>オブジェクト配置</t>
     <rPh sb="6" eb="8">
       <t>ハイチ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>シーン移行</t>
     <rPh sb="3" eb="5">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ロゴ</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>シーン選択</t>
     <rPh sb="3" eb="5">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ゲームシーン</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>チュートリアル移行</t>
     <rPh sb="7" eb="9">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ゲームシーン移行</t>
     <rPh sb="6" eb="8">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ゲーム本編</t>
     <rPh sb="3" eb="5">
       <t>ホンペン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>移動管理</t>
@@ -124,15 +124,15 @@
     <rPh sb="2" eb="4">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ジャンプ</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>しゃがみ</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>近距離攻撃</t>
@@ -142,7 +142,7 @@
     <rPh sb="3" eb="5">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>遠距離攻撃</t>
@@ -152,7 +152,7 @@
     <rPh sb="3" eb="5">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>必殺攻撃</t>
@@ -162,7 +162,7 @@
     <rPh sb="2" eb="4">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>当たり判定</t>
@@ -172,7 +172,7 @@
     <rPh sb="3" eb="5">
       <t>ハンテイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>アイテム獲得効果</t>
@@ -182,105 +182,105 @@
     <rPh sb="6" eb="8">
       <t>コウカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>攻撃</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ダメージ受</t>
     <rPh sb="4" eb="5">
       <t>ウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>死亡</t>
   </si>
   <si>
     <t>死亡</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>エネミー１</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>エネミー3</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>エネミー2</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>エネミー4</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>エネミー5</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>エフェクト</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>必殺技</t>
     <rPh sb="0" eb="3">
       <t>ヒッサツワザ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>エネミー</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ボス</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>リザルト</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ゲームクリア</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ゲームオーバー</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>コンティニュー</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ステージ</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ステージ</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>通常</t>
     <rPh sb="0" eb="2">
       <t>ツウジョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ウェーブ管理</t>
     <rPh sb="4" eb="6">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>出現管理</t>
@@ -290,21 +290,21 @@
     <rPh sb="2" eb="4">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>横ブレス</t>
     <rPh sb="0" eb="1">
       <t>ヨコ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>範囲ブレス</t>
     <rPh sb="0" eb="2">
       <t>ハンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>尻尾薙ぎ払い</t>
@@ -317,56 +317,56 @@
     <rPh sb="4" eb="5">
       <t>ハラ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>噛みつき</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>連続ひっかき</t>
     <rPh sb="0" eb="2">
       <t>レンゾク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>発表</t>
     <rPh sb="0" eb="2">
       <t>ハッピョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>田中</t>
     <rPh sb="0" eb="2">
       <t>タナカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>国見</t>
     <rPh sb="0" eb="2">
       <t>クニミ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>中尾</t>
     <rPh sb="0" eb="2">
       <t>ナカオ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>番條</t>
@@ -376,47 +376,39 @@
     <rPh sb="1" eb="2">
       <t>ジョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>エネミーベース</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>コンストラクタ</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>アップデート</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ドロウ</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ヒットチェック</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,7 +451,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,12 +497,6 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -907,34 +893,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -963,37 +946,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="56" fontId="2" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="56" fontId="2" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="56" fontId="1" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="56" fontId="1" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="30" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,7 +1041,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1012,87 +1059,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="20% - アクセント 1" xfId="3" builtinId="30"/>
     <cellStyle name="40% - アクセント 1" xfId="4" builtinId="31"/>
     <cellStyle name="40% - アクセント 2" xfId="5" builtinId="35"/>
-    <cellStyle name="40% - アクセント 3" xfId="8" builtinId="39"/>
     <cellStyle name="40% - アクセント 4" xfId="6" builtinId="43"/>
     <cellStyle name="アクセント 3" xfId="7" builtinId="37"/>
     <cellStyle name="悪い" xfId="2" builtinId="27"/>
@@ -1378,8 +1359,8 @@
   <dimension ref="A1:CN66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1417,10 +1398,10 @@
       <c r="K1" s="11">
         <v>43539</v>
       </c>
-      <c r="L1" s="29">
+      <c r="L1" s="28">
         <v>43540</v>
       </c>
-      <c r="M1" s="29">
+      <c r="M1" s="28">
         <v>43541</v>
       </c>
       <c r="N1" s="11">
@@ -1432,16 +1413,16 @@
       <c r="P1" s="11">
         <v>43544</v>
       </c>
-      <c r="Q1" s="29">
+      <c r="Q1" s="28">
         <v>43545</v>
       </c>
       <c r="R1" s="11">
         <v>43546</v>
       </c>
-      <c r="S1" s="29">
+      <c r="S1" s="28">
         <v>43547</v>
       </c>
-      <c r="T1" s="30">
+      <c r="T1" s="29">
         <v>43548</v>
       </c>
       <c r="U1" s="15">
@@ -1454,7 +1435,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
@@ -1463,7 +1444,7 @@
       <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="59" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="18"/>
@@ -1473,14 +1454,14 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="32"/>
+      <c r="N2" s="31"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="12"/>
-      <c r="U2" s="60" t="s">
+      <c r="U2" s="43" t="s">
         <v>51</v>
       </c>
       <c r="V2" s="2"/>
@@ -1490,14 +1471,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="46"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="64"/>
+      <c r="F3" s="47"/>
       <c r="G3" s="17"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1505,14 +1486,14 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="31"/>
+      <c r="N3" s="30"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="61"/>
+      <c r="U3" s="44"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1520,14 +1501,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="46"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="64"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="17"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1535,14 +1516,14 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="31"/>
+      <c r="N4" s="30"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="13"/>
-      <c r="U4" s="61"/>
+      <c r="U4" s="44"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1550,13 +1531,13 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="46"/>
+      <c r="A5" s="63"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="74"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1564,14 +1545,14 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="33"/>
+      <c r="N5" s="32"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="61"/>
+      <c r="U5" s="44"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1579,7 +1560,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6"/>
@@ -1587,7 +1568,7 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="61" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="18"/>
@@ -1598,13 +1579,13 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="32"/>
+      <c r="O6" s="31"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="61"/>
+      <c r="U6" s="44"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1612,13 +1593,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="46"/>
+      <c r="A7" s="63"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="74"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="19"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1627,13 +1608,13 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="33"/>
+      <c r="O7" s="32"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="61"/>
+      <c r="U7" s="44"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1641,24 +1622,24 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="63" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="58" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="37"/>
+      <c r="K8" s="36"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1667,17 +1648,17 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="61"/>
+      <c r="U8" s="44"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="67"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="17"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1685,30 +1666,30 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="36"/>
+      <c r="N9" s="35"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="61"/>
+      <c r="U9" s="44"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="67"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="17"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="36"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1716,21 +1697,21 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="61"/>
+      <c r="U10" s="44"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="68"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="17"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="36"/>
+      <c r="K11" s="35"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1739,24 +1720,24 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="61"/>
+      <c r="U11" s="44"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="68" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1770,18 +1751,18 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="61"/>
+      <c r="U12" s="44"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="48"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="42"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1795,18 +1776,18 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="61"/>
+      <c r="U13" s="44"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="48"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="42"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1820,18 +1801,18 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="61"/>
+      <c r="U14" s="44"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="48"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="42"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1845,19 +1826,19 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="61"/>
+      <c r="U15" s="44"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="48"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="70"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="27"/>
+      <c r="H16" s="42"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1870,20 +1851,20 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="44"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="48"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="70"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="17"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="27"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1895,22 +1876,22 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="61"/>
+      <c r="U17" s="44"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="48"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="17"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1920,19 +1901,19 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="61"/>
+      <c r="U18" s="44"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="48"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="27"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1945,19 +1926,19 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="61"/>
+      <c r="U19" s="44"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="48"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="70"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="27"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1970,19 +1951,19 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="61"/>
+      <c r="U20" s="44"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="48"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="71"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="27"/>
+      <c r="H21" s="42"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1995,11 +1976,11 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="61"/>
+      <c r="U21" s="44"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="22" t="s">
         <v>44</v>
       </c>
@@ -2007,11 +1988,11 @@
       <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="49" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="40"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2024,20 +2005,20 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="61"/>
+      <c r="U22" s="44"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="51" t="s">
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="71" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="41"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2051,18 +2032,18 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="61"/>
+      <c r="U23" s="44"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="52"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="41"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2076,18 +2057,18 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="61"/>
+      <c r="U24" s="44"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="52"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="41"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="39"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2100,18 +2081,18 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="61"/>
+      <c r="U25" s="44"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="53"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="39"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -2125,24 +2106,24 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="61"/>
+      <c r="U26" s="44"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="48" t="s">
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="68" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="46" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -2154,18 +2135,18 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="61"/>
+      <c r="U27" s="44"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="48"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="64"/>
-      <c r="G28" s="42"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -2179,18 +2160,18 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="61"/>
+      <c r="U28" s="44"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="48"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="42"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2204,18 +2185,18 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="61"/>
+      <c r="U29" s="44"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="48"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="42"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -2229,24 +2210,24 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="61"/>
+      <c r="U30" s="44"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46" t="s">
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="46" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="30"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -2258,18 +2239,18 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="61"/>
+      <c r="U31" s="44"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="64"/>
-      <c r="G32" s="26"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -2283,18 +2264,18 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="61"/>
+      <c r="U32" s="44"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="42"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -2308,18 +2289,18 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="61"/>
+      <c r="U33" s="44"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="65"/>
-      <c r="G34" s="42"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="40"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -2333,19 +2314,19 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="61"/>
+      <c r="U34" s="44"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46" t="s">
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="52" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="17"/>
@@ -2356,23 +2337,23 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="27"/>
+      <c r="O35" s="26"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="13"/>
-      <c r="U35" s="61"/>
+      <c r="U35" s="44"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="70"/>
+      <c r="F36" s="53"/>
       <c r="G36" s="17"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2381,23 +2362,23 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
-      <c r="O36" s="27"/>
+      <c r="O36" s="26"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="61"/>
+      <c r="U36" s="44"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="70"/>
+      <c r="F37" s="53"/>
       <c r="G37" s="17"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2406,23 +2387,23 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="27"/>
+      <c r="O37" s="26"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="61"/>
+      <c r="U37" s="44"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="71"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="17"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2431,25 +2412,25 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
-      <c r="O38" s="27"/>
+      <c r="O38" s="26"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="61"/>
+      <c r="U38" s="44"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46" t="s">
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="F39" s="55" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="17"/>
@@ -2460,23 +2441,23 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
-      <c r="O39" s="28"/>
+      <c r="O39" s="27"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="61"/>
+      <c r="U39" s="44"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="55"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="17"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2484,24 +2465,24 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="28"/>
+      <c r="N40" s="27"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="61"/>
+      <c r="U40" s="44"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="55"/>
+      <c r="F41" s="56"/>
       <c r="G41" s="17"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2509,24 +2490,24 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="28"/>
+      <c r="N41" s="27"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="61"/>
+      <c r="U41" s="44"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="56"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="17"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2534,29 +2515,29 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="28"/>
+      <c r="N42" s="27"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="61"/>
+      <c r="U42" s="44"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46" t="s">
+      <c r="A43" s="63"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="66" t="s">
+      <c r="F43" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="44"/>
+      <c r="H43" s="42"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2569,18 +2550,18 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="13"/>
-      <c r="U43" s="61"/>
+      <c r="U43" s="44"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="67"/>
-      <c r="G44" s="42"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="40"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -2594,18 +2575,18 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="13"/>
-      <c r="U44" s="61"/>
+      <c r="U44" s="44"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="67"/>
-      <c r="G45" s="42"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="40"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2619,18 +2600,18 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="13"/>
-      <c r="U45" s="61"/>
+      <c r="U45" s="44"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="68"/>
-      <c r="G46" s="42"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="40"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -2644,22 +2625,22 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="13"/>
-      <c r="U46" s="61"/>
+      <c r="U46" s="44"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="48" t="s">
+      <c r="A47" s="63"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="68" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="54" t="s">
+      <c r="F47" s="55" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="17"/>
-      <c r="H47" s="34"/>
+      <c r="H47" s="33"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -2672,20 +2653,20 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="13"/>
-      <c r="U47" s="61"/>
+      <c r="U47" s="44"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="57" t="s">
+      <c r="A48" s="63"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="65" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="55"/>
-      <c r="G48" s="34"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="74"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -2699,20 +2680,20 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="13"/>
-      <c r="U48" s="61"/>
+      <c r="U48" s="44"/>
     </row>
     <row r="49" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="57"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="55"/>
+      <c r="F49" s="56"/>
       <c r="G49" s="17"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="28"/>
+      <c r="I49" s="27"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -2724,21 +2705,21 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="13"/>
-      <c r="U49" s="61"/>
+      <c r="U49" s="44"/>
     </row>
     <row r="50" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="57"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="55"/>
+      <c r="F50" s="56"/>
       <c r="G50" s="17"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="28"/>
+      <c r="J50" s="27"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -2749,22 +2730,22 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="13"/>
-      <c r="U50" s="61"/>
+      <c r="U50" s="44"/>
     </row>
     <row r="51" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="57"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="55"/>
+      <c r="F51" s="56"/>
       <c r="G51" s="17"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="28"/>
+      <c r="K51" s="27"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -2774,23 +2755,23 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="13"/>
-      <c r="U51" s="61"/>
+      <c r="U51" s="44"/>
     </row>
     <row r="52" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="57"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="65"/>
       <c r="E52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="55"/>
+      <c r="F52" s="56"/>
       <c r="G52" s="17"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="28"/>
+      <c r="L52" s="27"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -2799,21 +2780,21 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="13"/>
-      <c r="U52" s="61"/>
+      <c r="U52" s="44"/>
     </row>
     <row r="53" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="48"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="56"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="28"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="27"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -2826,24 +2807,24 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="13"/>
-      <c r="U53" s="61"/>
+      <c r="U53" s="44"/>
     </row>
     <row r="54" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A54" s="46"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="49" t="s">
+      <c r="A54" s="63"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="57" t="s">
+      <c r="D54" s="65" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="66" t="s">
+      <c r="F54" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="42"/>
+      <c r="G54" s="40"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -2857,19 +2838,19 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="13"/>
-      <c r="U54" s="61"/>
+      <c r="U54" s="44"/>
     </row>
     <row r="55" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A55" s="46"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="57"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="65"/>
       <c r="E55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="67"/>
+      <c r="F55" s="50"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="44"/>
+      <c r="H55" s="42"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -2882,20 +2863,20 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="13"/>
-      <c r="U55" s="61"/>
+      <c r="U55" s="44"/>
     </row>
     <row r="56" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="57"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="65"/>
       <c r="E56" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="67"/>
+      <c r="F56" s="50"/>
       <c r="G56" s="17"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="36"/>
+      <c r="I56" s="35"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -2907,20 +2888,20 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="13"/>
-      <c r="U56" s="61"/>
+      <c r="U56" s="44"/>
     </row>
     <row r="57" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A57" s="46"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="57"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="65"/>
       <c r="E57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="68"/>
+      <c r="F57" s="51"/>
       <c r="G57" s="17"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="36"/>
+      <c r="J57" s="35"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -2931,19 +2912,19 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="13"/>
-      <c r="U57" s="61"/>
+      <c r="U57" s="44"/>
     </row>
     <row r="58" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A58" s="46"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="50"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="70"/>
       <c r="D58" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="54" t="s">
+      <c r="F58" s="55" t="s">
         <v>56</v>
       </c>
       <c r="G58" s="17"/>
@@ -2960,20 +2941,20 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="13"/>
-      <c r="U58" s="61"/>
+      <c r="U58" s="44"/>
     </row>
     <row r="59" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A59" s="46"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="58" t="s">
+      <c r="A59" s="63"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="66" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="42"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="40"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -2987,20 +2968,20 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="13"/>
-      <c r="U59" s="61"/>
+      <c r="U59" s="44"/>
     </row>
     <row r="60" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A60" s="46"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="59"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="56"/>
+      <c r="F60" s="57"/>
       <c r="G60" s="17"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="28"/>
+      <c r="I60" s="27"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -3012,26 +2993,26 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="13"/>
-      <c r="U60" s="61"/>
+      <c r="U60" s="44"/>
     </row>
     <row r="61" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A61" s="46"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="48" t="s">
+      <c r="A61" s="63"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="68" t="s">
         <v>42</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="63" t="s">
+      <c r="F61" s="46" t="s">
         <v>53</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -3041,22 +3022,22 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="13"/>
-      <c r="U61" s="61"/>
+      <c r="U61" s="44"/>
     </row>
     <row r="62" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A62" s="46"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="48"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="68"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="65"/>
+      <c r="F62" s="48"/>
       <c r="G62" s="17"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="31"/>
+      <c r="K62" s="30"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -3066,7 +3047,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="13"/>
-      <c r="U62" s="61"/>
+      <c r="U62" s="44"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
@@ -3140,8 +3121,8 @@
       <c r="CN62" s="2"/>
     </row>
     <row r="63" spans="1:92" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="10" t="s">
         <v>7</v>
       </c>
@@ -3159,13 +3140,13 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
-      <c r="O63" s="38"/>
+      <c r="O63" s="37"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="14"/>
-      <c r="U63" s="61"/>
+      <c r="U63" s="44"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
@@ -3239,7 +3220,7 @@
       <c r="CN63" s="2"/>
     </row>
     <row r="64" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="23" t="s">
@@ -3252,7 +3233,7 @@
       <c r="F64" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="43"/>
+      <c r="G64" s="41"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -3266,11 +3247,11 @@
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="12"/>
-      <c r="U64" s="61"/>
+      <c r="U64" s="44"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A65" s="46"/>
-      <c r="B65" s="48" t="s">
+      <c r="A65" s="63"/>
+      <c r="B65" s="68" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="4"/>
@@ -3278,7 +3259,7 @@
       <c r="E65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="69" t="s">
+      <c r="F65" s="52" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="17"/>
@@ -3288,24 +3269,24 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-      <c r="N65" s="27"/>
+      <c r="N65" s="26"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="13"/>
-      <c r="U65" s="61"/>
+      <c r="U65" s="44"/>
     </row>
     <row r="66" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="46"/>
-      <c r="B66" s="48"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="68"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="71"/>
+      <c r="F66" s="54"/>
       <c r="G66" s="17"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3313,17 +3294,38 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="27"/>
+      <c r="N66" s="26"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="13"/>
-      <c r="U66" s="62"/>
+      <c r="U66" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B63"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A63"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D59:D60"/>
     <mergeCell ref="U2:U66"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="F31:F34"/>
@@ -3339,29 +3341,8 @@
     <mergeCell ref="F54:F57"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A63"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B63"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C23:C26"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/高松チーム/必要書類/スケジュール/スケジュール.xlsx
+++ b/高松チーム/必要書類/スケジュール/スケジュール.xlsx
@@ -917,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -965,7 +965,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
@@ -975,6 +974,52 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1011,15 +1056,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1032,43 +1068,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - アクセント 1" xfId="3" builtinId="30"/>
@@ -1359,8 +1358,8 @@
   <dimension ref="A1:CN66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1435,7 +1434,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
@@ -1444,7 +1443,7 @@
       <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="71" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="18"/>
@@ -1461,7 +1460,7 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="12"/>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="58" t="s">
         <v>51</v>
       </c>
       <c r="V2" s="2"/>
@@ -1471,14 +1470,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="63"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="47"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="17"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1493,7 +1492,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="44"/>
+      <c r="U3" s="59"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1501,14 +1500,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="63"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="17"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1523,7 +1522,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="13"/>
-      <c r="U4" s="44"/>
+      <c r="U4" s="59"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1531,13 +1530,13 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="63"/>
+      <c r="A5" s="44"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1552,7 +1551,7 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="44"/>
+      <c r="U5" s="59"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1560,7 +1559,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6"/>
@@ -1568,7 +1567,7 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="73" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="18"/>
@@ -1585,7 +1584,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="44"/>
+      <c r="U6" s="59"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1593,13 +1592,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="63"/>
+      <c r="A7" s="44"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="60"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="19"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1614,7 +1613,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="44"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1622,24 +1621,24 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="70" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="36"/>
+      <c r="K8" s="35"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1648,17 +1647,17 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="44"/>
+      <c r="U8" s="59"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="50"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="17"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1666,30 +1665,30 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="35"/>
+      <c r="N9" s="34"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="44"/>
+      <c r="U9" s="59"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="50"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="17"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="35"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1697,21 +1696,21 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="44"/>
+      <c r="U10" s="59"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="51"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="17"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="35"/>
+      <c r="K11" s="34"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1720,24 +1719,24 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="44"/>
+      <c r="U11" s="59"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="46" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="40"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1751,18 +1750,18 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="44"/>
+      <c r="U12" s="59"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="68"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="40"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1776,18 +1775,18 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="44"/>
+      <c r="U13" s="59"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="68"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="40"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1801,18 +1800,18 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="44"/>
+      <c r="U14" s="59"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="68"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1826,19 +1825,19 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="44"/>
+      <c r="U15" s="59"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="68"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="42"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1851,17 +1850,17 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="44"/>
+      <c r="U16" s="59"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="68"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="17"/>
       <c r="H17" s="4"/>
       <c r="I17" s="26"/>
@@ -1876,17 +1875,17 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="44"/>
+      <c r="U17" s="59"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="68"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="53"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="17"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1901,17 +1900,17 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="44"/>
+      <c r="U18" s="59"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="68"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="53"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="17"/>
       <c r="H19" s="26"/>
       <c r="I19" s="4"/>
@@ -1926,19 +1925,19 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="44"/>
+      <c r="U19" s="59"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="68"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="42"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1951,19 +1950,19 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="44"/>
+      <c r="U20" s="59"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="68"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="54"/>
+      <c r="F21" s="69"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="42"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1976,11 +1975,11 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="44"/>
+      <c r="U21" s="59"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="22" t="s">
         <v>44</v>
       </c>
@@ -1988,11 +1987,11 @@
       <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="64" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="42"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2005,20 +2004,20 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="44"/>
+      <c r="U22" s="59"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="71" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="49" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="39"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2032,18 +2031,18 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="44"/>
+      <c r="U23" s="59"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="72"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="39"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2057,18 +2056,18 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="44"/>
+      <c r="U24" s="59"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="72"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="39"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="38"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2081,18 +2080,18 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="44"/>
+      <c r="U25" s="59"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="73"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="38"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="37"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -2106,23 +2105,23 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="44"/>
+      <c r="U26" s="59"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="68" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="46" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="61" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="42"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="30"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -2135,18 +2134,18 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="44"/>
+      <c r="U27" s="59"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="68"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="40"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -2160,18 +2159,18 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="44"/>
+      <c r="U28" s="59"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="68"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="47"/>
-      <c r="G29" s="40"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2185,18 +2184,18 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="44"/>
+      <c r="U29" s="59"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="68"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="40"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="39"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -2210,23 +2209,23 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="44"/>
+      <c r="U30" s="59"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="61" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="42"/>
+      <c r="H31" s="41"/>
       <c r="I31" s="30"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -2239,18 +2238,18 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="44"/>
+      <c r="U31" s="59"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="47"/>
-      <c r="G32" s="40"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="39"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -2264,18 +2263,18 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="44"/>
+      <c r="U32" s="59"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="40"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="39"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -2289,18 +2288,18 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="44"/>
+      <c r="U33" s="59"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="40"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="39"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -2314,19 +2313,19 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="44"/>
+      <c r="U34" s="59"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="67" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="17"/>
@@ -2343,17 +2342,17 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="13"/>
-      <c r="U35" s="44"/>
+      <c r="U35" s="59"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="53"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="17"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2368,17 +2367,17 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="44"/>
+      <c r="U36" s="59"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A37" s="63"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="53"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="17"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2393,17 +2392,17 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="44"/>
+      <c r="U37" s="59"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A38" s="63"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="54"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="17"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2418,19 +2417,19 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="44"/>
+      <c r="U38" s="59"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="55" t="s">
+      <c r="F39" s="52" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="17"/>
@@ -2447,17 +2446,17 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="44"/>
+      <c r="U39" s="59"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="56"/>
+      <c r="F40" s="53"/>
       <c r="G40" s="17"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2472,17 +2471,17 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="44"/>
+      <c r="U40" s="59"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="56"/>
+      <c r="F41" s="53"/>
       <c r="G41" s="17"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2497,17 +2496,17 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="44"/>
+      <c r="U41" s="59"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A42" s="63"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="57"/>
+      <c r="F42" s="54"/>
       <c r="G42" s="17"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2522,22 +2521,22 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="44"/>
+      <c r="U42" s="59"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63" t="s">
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="F43" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="42"/>
+      <c r="H43" s="41"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2550,18 +2549,18 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="13"/>
-      <c r="U43" s="44"/>
+      <c r="U43" s="59"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A44" s="63"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="50"/>
-      <c r="G44" s="40"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="39"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -2575,18 +2574,18 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="13"/>
-      <c r="U44" s="44"/>
+      <c r="U44" s="59"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A45" s="63"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="40"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="39"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2600,18 +2599,18 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="13"/>
-      <c r="U45" s="44"/>
+      <c r="U45" s="59"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A46" s="63"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="51"/>
-      <c r="G46" s="40"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="39"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -2625,22 +2624,22 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="13"/>
-      <c r="U46" s="44"/>
+      <c r="U46" s="59"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A47" s="63"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="68" t="s">
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="46" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="55" t="s">
+      <c r="F47" s="52" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="17"/>
-      <c r="H47" s="33"/>
+      <c r="H47" s="42"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -2653,20 +2652,20 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="13"/>
-      <c r="U47" s="44"/>
+      <c r="U47" s="59"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A48" s="63"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="65" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="55" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="56"/>
-      <c r="G48" s="74"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="42"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -2680,17 +2679,17 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="13"/>
-      <c r="U48" s="44"/>
+      <c r="U48" s="59"/>
     </row>
     <row r="49" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A49" s="63"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="65"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="55"/>
       <c r="E49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="56"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="17"/>
       <c r="H49" s="4"/>
       <c r="I49" s="27"/>
@@ -2705,17 +2704,17 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="13"/>
-      <c r="U49" s="44"/>
+      <c r="U49" s="59"/>
     </row>
     <row r="50" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A50" s="63"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="65"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="56"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="17"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -2730,17 +2729,17 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="13"/>
-      <c r="U50" s="44"/>
+      <c r="U50" s="59"/>
     </row>
     <row r="51" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A51" s="63"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="65"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="56"/>
+      <c r="F51" s="53"/>
       <c r="G51" s="17"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -2755,17 +2754,17 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="13"/>
-      <c r="U51" s="44"/>
+      <c r="U51" s="59"/>
     </row>
     <row r="52" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A52" s="63"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="65"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="55"/>
       <c r="E52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="56"/>
+      <c r="F52" s="53"/>
       <c r="G52" s="17"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2780,20 +2779,20 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="13"/>
-      <c r="U52" s="44"/>
+      <c r="U52" s="59"/>
     </row>
     <row r="53" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A53" s="63"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="68"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="57"/>
-      <c r="G53" s="34"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="33"/>
       <c r="H53" s="27"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -2807,24 +2806,24 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="13"/>
-      <c r="U53" s="44"/>
+      <c r="U53" s="59"/>
     </row>
     <row r="54" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A54" s="63"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="69" t="s">
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="65" t="s">
+      <c r="D54" s="55" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="49" t="s">
+      <c r="F54" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="40"/>
+      <c r="G54" s="39"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -2838,19 +2837,19 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="13"/>
-      <c r="U54" s="44"/>
+      <c r="U54" s="59"/>
     </row>
     <row r="55" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A55" s="63"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="65"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="50"/>
+      <c r="F55" s="65"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="42"/>
+      <c r="H55" s="41"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -2863,20 +2862,20 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="13"/>
-      <c r="U55" s="44"/>
+      <c r="U55" s="59"/>
     </row>
     <row r="56" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A56" s="63"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="65"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="50"/>
+      <c r="F56" s="65"/>
       <c r="G56" s="17"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="35"/>
+      <c r="I56" s="34"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -2888,20 +2887,20 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="13"/>
-      <c r="U56" s="44"/>
+      <c r="U56" s="59"/>
     </row>
     <row r="57" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A57" s="63"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="65"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="51"/>
+      <c r="F57" s="66"/>
       <c r="G57" s="17"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="35"/>
+      <c r="J57" s="34"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -2912,19 +2911,19 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="13"/>
-      <c r="U57" s="44"/>
+      <c r="U57" s="59"/>
     </row>
     <row r="58" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A58" s="63"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="70"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="48"/>
       <c r="D58" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="55" t="s">
+      <c r="F58" s="52" t="s">
         <v>56</v>
       </c>
       <c r="G58" s="17"/>
@@ -2941,20 +2940,20 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="13"/>
-      <c r="U58" s="44"/>
+      <c r="U58" s="59"/>
     </row>
     <row r="59" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A59" s="63"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="66" t="s">
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="56" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="56"/>
-      <c r="G59" s="40"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="39"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -2968,17 +2967,17 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="13"/>
-      <c r="U59" s="44"/>
+      <c r="U59" s="59"/>
     </row>
     <row r="60" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A60" s="63"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="67"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="57"/>
+      <c r="F60" s="54"/>
       <c r="G60" s="17"/>
       <c r="H60" s="4"/>
       <c r="I60" s="27"/>
@@ -2993,19 +2992,19 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="13"/>
-      <c r="U60" s="44"/>
+      <c r="U60" s="59"/>
     </row>
     <row r="61" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A61" s="63"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="68" t="s">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="46" t="s">
         <v>42</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="46" t="s">
+      <c r="F61" s="61" t="s">
         <v>53</v>
       </c>
       <c r="G61" s="17"/>
@@ -3022,17 +3021,17 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="13"/>
-      <c r="U61" s="44"/>
+      <c r="U61" s="59"/>
     </row>
     <row r="62" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A62" s="63"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="68"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="48"/>
+      <c r="F62" s="63"/>
       <c r="G62" s="17"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3047,7 +3046,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="13"/>
-      <c r="U62" s="44"/>
+      <c r="U62" s="59"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
@@ -3121,8 +3120,8 @@
       <c r="CN62" s="2"/>
     </row>
     <row r="63" spans="1:92" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="64"/>
-      <c r="B63" s="64"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="10" t="s">
         <v>7</v>
       </c>
@@ -3140,13 +3139,13 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
-      <c r="O63" s="37"/>
+      <c r="O63" s="36"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="14"/>
-      <c r="U63" s="44"/>
+      <c r="U63" s="59"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
@@ -3220,7 +3219,7 @@
       <c r="CN63" s="2"/>
     </row>
     <row r="64" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="43" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="23" t="s">
@@ -3233,7 +3232,7 @@
       <c r="F64" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="41"/>
+      <c r="G64" s="40"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -3247,11 +3246,11 @@
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="12"/>
-      <c r="U64" s="44"/>
+      <c r="U64" s="59"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A65" s="63"/>
-      <c r="B65" s="68" t="s">
+      <c r="A65" s="44"/>
+      <c r="B65" s="46" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="4"/>
@@ -3259,7 +3258,7 @@
       <c r="E65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="52" t="s">
+      <c r="F65" s="67" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="17"/>
@@ -3276,17 +3275,17 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="13"/>
-      <c r="U65" s="44"/>
+      <c r="U65" s="59"/>
     </row>
     <row r="66" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="63"/>
-      <c r="B66" s="68"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="54"/>
+      <c r="F66" s="69"/>
       <c r="G66" s="17"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3301,10 +3300,31 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="13"/>
-      <c r="U66" s="45"/>
+      <c r="U66" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="U2:U66"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F12:F21"/>
+    <mergeCell ref="F47:F53"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A63"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D59:D60"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B63"/>
@@ -3320,27 +3340,6 @@
     <mergeCell ref="C54:C60"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="C23:C26"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A63"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="U2:U66"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F12:F21"/>
-    <mergeCell ref="F47:F53"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高松チーム/必要書類/スケジュール/スケジュール.xlsx
+++ b/高松チーム/必要書類/スケジュール/スケジュール.xlsx
@@ -967,7 +967,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="30" xfId="7" applyBorder="1" applyAlignment="1"/>
@@ -975,6 +974,63 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -984,6 +1040,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1002,72 +1067,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - アクセント 1" xfId="3" builtinId="30"/>
@@ -1358,8 +1358,8 @@
   <dimension ref="A1:CN66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q48" sqref="Q48"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1434,7 +1434,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
@@ -1443,7 +1443,7 @@
       <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="58" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="18"/>
@@ -1453,14 +1453,14 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="31"/>
+      <c r="N2" s="73"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="12"/>
-      <c r="U2" s="58" t="s">
+      <c r="U2" s="42" t="s">
         <v>51</v>
       </c>
       <c r="V2" s="2"/>
@@ -1470,14 +1470,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="44"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="62"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="17"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1492,7 +1492,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="59"/>
+      <c r="U3" s="43"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1500,14 +1500,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="44"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="17"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1515,14 +1515,14 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="30"/>
+      <c r="N4" s="40"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="13"/>
-      <c r="U4" s="59"/>
+      <c r="U4" s="43"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1530,13 +1530,13 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="44"/>
+      <c r="A5" s="62"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1551,7 +1551,7 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="59"/>
+      <c r="U5" s="43"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1559,7 +1559,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="62" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6"/>
@@ -1567,7 +1567,7 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="60" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="18"/>
@@ -1584,7 +1584,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="59"/>
+      <c r="U6" s="43"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1592,13 +1592,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="44"/>
+      <c r="A7" s="62"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="19"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1613,7 +1613,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="59"/>
+      <c r="U7" s="43"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1621,24 +1621,24 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="62" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="57" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="35"/>
+      <c r="K8" s="73"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1647,17 +1647,17 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="59"/>
+      <c r="U8" s="43"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="17"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1672,17 +1672,17 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="59"/>
+      <c r="U9" s="43"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="65"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="17"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1696,21 +1696,21 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="59"/>
+      <c r="U10" s="43"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="66"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="17"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="34"/>
+      <c r="K11" s="40"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1719,24 +1719,24 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="59"/>
+      <c r="U11" s="43"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="67" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="39"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1750,18 +1750,18 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="59"/>
+      <c r="U12" s="43"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="46"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="39"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1775,18 +1775,18 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="59"/>
+      <c r="U13" s="43"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="46"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="39"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1800,18 +1800,18 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="59"/>
+      <c r="U14" s="43"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="46"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="39"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1825,19 +1825,19 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="59"/>
+      <c r="U15" s="43"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="68"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="41"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1850,20 +1850,20 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="43"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="46"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="68"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="17"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="26"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1875,17 +1875,17 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="59"/>
+      <c r="U17" s="43"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="46"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="68"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="17"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1900,17 +1900,17 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="59"/>
+      <c r="U18" s="43"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="46"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="68"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="17"/>
       <c r="H19" s="26"/>
       <c r="I19" s="4"/>
@@ -1925,19 +1925,19 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="59"/>
+      <c r="U19" s="43"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="46"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="68"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="41"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1950,19 +1950,19 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="59"/>
+      <c r="U20" s="43"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="46"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="69"/>
+      <c r="F21" s="53"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="41"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1975,11 +1975,11 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="59"/>
+      <c r="U21" s="43"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="22" t="s">
         <v>44</v>
       </c>
@@ -1987,11 +1987,11 @@
       <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="48" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="41"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2004,20 +2004,20 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="59"/>
+      <c r="U22" s="43"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="49" t="s">
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="70" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="38"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="37"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2031,18 +2031,18 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="59"/>
+      <c r="U23" s="43"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="50"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="38"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="37"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2056,18 +2056,18 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="59"/>
+      <c r="U24" s="43"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="50"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="38"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="37"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2080,18 +2080,18 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="59"/>
+      <c r="U25" s="43"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="51"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="37"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -2105,24 +2105,24 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="59"/>
+      <c r="U26" s="43"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="46" t="s">
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="67" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="45" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="30"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -2134,18 +2134,18 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="59"/>
+      <c r="U27" s="43"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="46"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="39"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -2159,18 +2159,18 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="59"/>
+      <c r="U28" s="43"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="46"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="39"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2184,18 +2184,18 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="59"/>
+      <c r="U29" s="43"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="46"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="63"/>
-      <c r="G30" s="39"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="38"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -2209,24 +2209,24 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="59"/>
+      <c r="U30" s="43"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44" t="s">
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="45" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="30"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -2238,18 +2238,18 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="59"/>
+      <c r="U31" s="43"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="62"/>
-      <c r="G32" s="39"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="38"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -2263,18 +2263,18 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="59"/>
+      <c r="U32" s="43"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="39"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="38"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -2288,18 +2288,18 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="59"/>
+      <c r="U33" s="43"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="63"/>
-      <c r="G34" s="39"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="38"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -2313,19 +2313,19 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="59"/>
+      <c r="U34" s="43"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44" t="s">
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="67" t="s">
+      <c r="F35" s="51" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="17"/>
@@ -2342,17 +2342,17 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="13"/>
-      <c r="U35" s="59"/>
+      <c r="U35" s="43"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="68"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="17"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2367,17 +2367,17 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="59"/>
+      <c r="U36" s="43"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="68"/>
+      <c r="F37" s="52"/>
       <c r="G37" s="17"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2392,17 +2392,17 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="59"/>
+      <c r="U37" s="43"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="69"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="17"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2417,19 +2417,19 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="59"/>
+      <c r="U38" s="43"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44" t="s">
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="54" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="17"/>
@@ -2446,17 +2446,17 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="59"/>
+      <c r="U39" s="43"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="53"/>
+      <c r="F40" s="55"/>
       <c r="G40" s="17"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2471,17 +2471,17 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="59"/>
+      <c r="U40" s="43"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="53"/>
+      <c r="F41" s="55"/>
       <c r="G41" s="17"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2496,17 +2496,17 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="59"/>
+      <c r="U41" s="43"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="54"/>
+      <c r="F42" s="56"/>
       <c r="G42" s="17"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2521,22 +2521,22 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="59"/>
+      <c r="U42" s="43"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44" t="s">
+      <c r="A43" s="62"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="64" t="s">
+      <c r="F43" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="41"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2549,18 +2549,18 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="13"/>
-      <c r="U43" s="59"/>
+      <c r="U43" s="43"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="65"/>
-      <c r="G44" s="39"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="38"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -2574,18 +2574,18 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="13"/>
-      <c r="U44" s="59"/>
+      <c r="U44" s="43"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="65"/>
-      <c r="G45" s="39"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="38"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2599,18 +2599,18 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="13"/>
-      <c r="U45" s="59"/>
+      <c r="U45" s="43"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="66"/>
-      <c r="G46" s="39"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="38"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -2624,22 +2624,22 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="13"/>
-      <c r="U46" s="59"/>
+      <c r="U46" s="43"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="46" t="s">
+      <c r="A47" s="62"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="67" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="52" t="s">
+      <c r="F47" s="54" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="17"/>
-      <c r="H47" s="42"/>
+      <c r="H47" s="41"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -2652,20 +2652,20 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="13"/>
-      <c r="U47" s="59"/>
+      <c r="U47" s="43"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="55" t="s">
+      <c r="A48" s="62"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="64" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="53"/>
-      <c r="G48" s="42"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -2679,20 +2679,20 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="13"/>
-      <c r="U48" s="59"/>
+      <c r="U48" s="43"/>
     </row>
     <row r="49" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="55"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="64"/>
       <c r="E49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="53"/>
+      <c r="F49" s="55"/>
       <c r="G49" s="17"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="27"/>
+      <c r="I49" s="40"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -2704,17 +2704,17 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="13"/>
-      <c r="U49" s="59"/>
+      <c r="U49" s="43"/>
     </row>
     <row r="50" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="55"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="64"/>
       <c r="E50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="53"/>
+      <c r="F50" s="55"/>
       <c r="G50" s="17"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -2729,22 +2729,22 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="13"/>
-      <c r="U50" s="59"/>
+      <c r="U50" s="43"/>
     </row>
     <row r="51" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="55"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="64"/>
       <c r="E51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="53"/>
+      <c r="F51" s="55"/>
       <c r="G51" s="17"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="27"/>
+      <c r="K51" s="40"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -2754,17 +2754,17 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="13"/>
-      <c r="U51" s="59"/>
+      <c r="U51" s="43"/>
     </row>
     <row r="52" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="55"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="64"/>
       <c r="E52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="53"/>
+      <c r="F52" s="55"/>
       <c r="G52" s="17"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2779,19 +2779,19 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="13"/>
-      <c r="U52" s="59"/>
+      <c r="U52" s="43"/>
     </row>
     <row r="53" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="46"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="54"/>
+      <c r="F53" s="56"/>
       <c r="G53" s="33"/>
       <c r="H53" s="27"/>
       <c r="I53" s="4"/>
@@ -2806,24 +2806,24 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="13"/>
-      <c r="U53" s="59"/>
+      <c r="U53" s="43"/>
     </row>
     <row r="54" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="47" t="s">
+      <c r="A54" s="62"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="64" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="64" t="s">
+      <c r="F54" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="39"/>
+      <c r="G54" s="38"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -2837,19 +2837,19 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="13"/>
-      <c r="U54" s="59"/>
+      <c r="U54" s="43"/>
     </row>
     <row r="55" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="55"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="64"/>
       <c r="E55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="65"/>
+      <c r="F55" s="49"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="41"/>
+      <c r="H55" s="40"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -2862,20 +2862,20 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="13"/>
-      <c r="U55" s="59"/>
+      <c r="U55" s="43"/>
     </row>
     <row r="56" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="55"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="64"/>
       <c r="E56" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="65"/>
+      <c r="F56" s="49"/>
       <c r="G56" s="17"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="34"/>
+      <c r="I56" s="40"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -2887,17 +2887,17 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="13"/>
-      <c r="U56" s="59"/>
+      <c r="U56" s="43"/>
     </row>
     <row r="57" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="55"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="66"/>
+      <c r="F57" s="50"/>
       <c r="G57" s="17"/>
       <c r="I57" s="4"/>
       <c r="J57" s="34"/>
@@ -2911,19 +2911,19 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="13"/>
-      <c r="U57" s="59"/>
+      <c r="U57" s="43"/>
     </row>
     <row r="58" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="48"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="69"/>
       <c r="D58" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="52" t="s">
+      <c r="F58" s="54" t="s">
         <v>56</v>
       </c>
       <c r="G58" s="17"/>
@@ -2940,20 +2940,20 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="13"/>
-      <c r="U58" s="59"/>
+      <c r="U58" s="43"/>
     </row>
     <row r="59" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="56" t="s">
+      <c r="A59" s="62"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="65" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="53"/>
-      <c r="G59" s="39"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="38"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -2967,20 +2967,20 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="13"/>
-      <c r="U59" s="59"/>
+      <c r="U59" s="43"/>
     </row>
     <row r="60" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="57"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="66"/>
       <c r="E60" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="54"/>
+      <c r="F60" s="56"/>
       <c r="G60" s="17"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="27"/>
+      <c r="I60" s="40"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -2992,19 +2992,19 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="13"/>
-      <c r="U60" s="59"/>
+      <c r="U60" s="43"/>
     </row>
     <row r="61" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="46" t="s">
+      <c r="A61" s="62"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="67" t="s">
         <v>42</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="61" t="s">
+      <c r="F61" s="45" t="s">
         <v>53</v>
       </c>
       <c r="G61" s="17"/>
@@ -3021,17 +3021,17 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="13"/>
-      <c r="U61" s="59"/>
+      <c r="U61" s="43"/>
     </row>
     <row r="62" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="46"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="63"/>
+      <c r="F62" s="47"/>
       <c r="G62" s="17"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3046,7 +3046,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="13"/>
-      <c r="U62" s="59"/>
+      <c r="U62" s="43"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
@@ -3120,8 +3120,8 @@
       <c r="CN62" s="2"/>
     </row>
     <row r="63" spans="1:92" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
+      <c r="A63" s="63"/>
+      <c r="B63" s="63"/>
       <c r="C63" s="10" t="s">
         <v>7</v>
       </c>
@@ -3139,13 +3139,13 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
-      <c r="O63" s="36"/>
+      <c r="O63" s="35"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="14"/>
-      <c r="U63" s="59"/>
+      <c r="U63" s="43"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
@@ -3219,7 +3219,7 @@
       <c r="CN63" s="2"/>
     </row>
     <row r="64" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="23" t="s">
@@ -3232,7 +3232,7 @@
       <c r="F64" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="40"/>
+      <c r="G64" s="39"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -3246,11 +3246,11 @@
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="12"/>
-      <c r="U64" s="59"/>
+      <c r="U64" s="43"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A65" s="44"/>
-      <c r="B65" s="46" t="s">
+      <c r="A65" s="62"/>
+      <c r="B65" s="67" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="4"/>
@@ -3258,7 +3258,7 @@
       <c r="E65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="67" t="s">
+      <c r="F65" s="51" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="17"/>
@@ -3275,17 +3275,17 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="13"/>
-      <c r="U65" s="59"/>
+      <c r="U65" s="43"/>
     </row>
     <row r="66" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="44"/>
-      <c r="B66" s="46"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="67"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="69"/>
+      <c r="F66" s="53"/>
       <c r="G66" s="17"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3300,10 +3300,31 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="13"/>
-      <c r="U66" s="60"/>
+      <c r="U66" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B63"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A63"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D59:D60"/>
     <mergeCell ref="U2:U66"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="F31:F34"/>
@@ -3319,27 +3340,6 @@
     <mergeCell ref="F54:F57"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A63"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B63"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C23:C26"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高松チーム/必要書類/スケジュール/スケジュール.xlsx
+++ b/高松チーム/必要書類/スケジュール/スケジュール.xlsx
@@ -917,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -965,15 +965,59 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="30" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1010,15 +1054,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,43 +1066,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="7" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - アクセント 1" xfId="3" builtinId="30"/>
@@ -1359,7 +1358,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O54" sqref="O54"/>
+      <selection pane="bottomLeft" activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1434,7 +1433,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
@@ -1443,7 +1442,7 @@
       <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="69" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="18"/>
@@ -1453,14 +1452,14 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="73"/>
+      <c r="N2" s="40"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="12"/>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="56" t="s">
         <v>51</v>
       </c>
       <c r="V2" s="2"/>
@@ -1470,14 +1469,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="62"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="46"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="17"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1485,14 +1484,14 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="30"/>
+      <c r="N3" s="38"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="43"/>
+      <c r="U3" s="57"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1500,14 +1499,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="62"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="17"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1515,14 +1514,14 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="40"/>
+      <c r="N4" s="38"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="13"/>
-      <c r="U4" s="43"/>
+      <c r="U4" s="57"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1530,13 +1529,13 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="62"/>
+      <c r="A5" s="42"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="59"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1544,14 +1543,14 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="32"/>
+      <c r="N5" s="72"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="43"/>
+      <c r="U5" s="57"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1559,7 +1558,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6"/>
@@ -1567,7 +1566,7 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="71" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="18"/>
@@ -1584,7 +1583,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="43"/>
+      <c r="U6" s="57"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1592,13 +1591,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="62"/>
+      <c r="A7" s="42"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="59"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="19"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1613,7 +1612,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="43"/>
+      <c r="U7" s="57"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1621,24 +1620,24 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="42" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="68" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="73"/>
+      <c r="K8" s="40"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1647,17 +1646,17 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="43"/>
+      <c r="U8" s="57"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="17"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1665,30 +1664,30 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="34"/>
+      <c r="N9" s="33"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="43"/>
+      <c r="U9" s="57"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="17"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="34"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1696,21 +1695,21 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="43"/>
+      <c r="U10" s="57"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="50"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="17"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="40"/>
+      <c r="K11" s="38"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1719,24 +1718,24 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="43"/>
+      <c r="U11" s="57"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="44" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="38"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1750,18 +1749,18 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="43"/>
+      <c r="U12" s="57"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="67"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="38"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1775,18 +1774,18 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="43"/>
+      <c r="U13" s="57"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="67"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="38"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1800,18 +1799,18 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="43"/>
+      <c r="U14" s="57"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="67"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="38"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1825,19 +1824,19 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="43"/>
+      <c r="U15" s="57"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="67"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="40"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1850,20 +1849,20 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="43"/>
+      <c r="U16" s="57"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="67"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="52"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="17"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="40"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1875,22 +1874,22 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="43"/>
+      <c r="U17" s="57"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="67"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="52"/>
+      <c r="F18" s="66"/>
       <c r="G18" s="17"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1900,19 +1899,19 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="43"/>
+      <c r="U18" s="57"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="67"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="26"/>
+      <c r="H19" s="38"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1925,19 +1924,19 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="43"/>
+      <c r="U19" s="57"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="67"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="40"/>
+      <c r="H20" s="38"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1950,19 +1949,19 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="43"/>
+      <c r="U20" s="57"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="67"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="53"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="40"/>
+      <c r="H21" s="38"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1975,11 +1974,11 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="43"/>
+      <c r="U21" s="57"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="22" t="s">
         <v>44</v>
       </c>
@@ -1987,11 +1986,11 @@
       <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="62" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="40"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2004,20 +2003,20 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="43"/>
+      <c r="U22" s="57"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="70" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="47" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="37"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2031,18 +2030,18 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="43"/>
+      <c r="U23" s="57"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="71"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="37"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="35"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2056,18 +2055,18 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="43"/>
+      <c r="U24" s="57"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="71"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="37"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="35"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2080,18 +2079,18 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="43"/>
+      <c r="U25" s="57"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="72"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="36"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -2105,24 +2104,24 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="43"/>
+      <c r="U26" s="57"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A27" s="62"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="67" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="44" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="59" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -2134,18 +2133,18 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="43"/>
+      <c r="U27" s="57"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="67"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="38"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -2159,18 +2158,18 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="43"/>
+      <c r="U28" s="57"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="67"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="46"/>
-      <c r="G29" s="38"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2184,18 +2183,18 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="43"/>
+      <c r="U29" s="57"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="67"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="47"/>
-      <c r="G30" s="38"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="36"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -2209,24 +2208,24 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="43"/>
+      <c r="U30" s="57"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="59" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -2238,18 +2237,18 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="43"/>
+      <c r="U31" s="57"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="38"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="36"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -2263,18 +2262,18 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="43"/>
+      <c r="U32" s="57"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="38"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -2288,18 +2287,18 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="43"/>
+      <c r="U33" s="57"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="38"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="36"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -2313,19 +2312,19 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="43"/>
+      <c r="U34" s="57"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="65" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="17"/>
@@ -2342,17 +2341,17 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="13"/>
-      <c r="U35" s="43"/>
+      <c r="U35" s="57"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="52"/>
+      <c r="F36" s="66"/>
       <c r="G36" s="17"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2367,17 +2366,17 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="43"/>
+      <c r="U36" s="57"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="52"/>
+      <c r="F37" s="66"/>
       <c r="G37" s="17"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2392,17 +2391,17 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="43"/>
+      <c r="U37" s="57"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="53"/>
+      <c r="F38" s="67"/>
       <c r="G38" s="17"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2417,19 +2416,19 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="43"/>
+      <c r="U38" s="57"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62" t="s">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="F39" s="50" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="17"/>
@@ -2446,17 +2445,17 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="43"/>
+      <c r="U39" s="57"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="55"/>
+      <c r="F40" s="51"/>
       <c r="G40" s="17"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2471,17 +2470,17 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="43"/>
+      <c r="U40" s="57"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="55"/>
+      <c r="F41" s="51"/>
       <c r="G41" s="17"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2496,17 +2495,17 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="43"/>
+      <c r="U41" s="57"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="56"/>
+      <c r="F42" s="52"/>
       <c r="G42" s="17"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2521,22 +2520,22 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="43"/>
+      <c r="U42" s="57"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62" t="s">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="48" t="s">
+      <c r="F43" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="40"/>
+      <c r="H43" s="38"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2549,18 +2548,18 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="13"/>
-      <c r="U43" s="43"/>
+      <c r="U43" s="57"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="38"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -2574,18 +2573,18 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="13"/>
-      <c r="U44" s="43"/>
+      <c r="U44" s="57"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="38"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="36"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2599,18 +2598,18 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="13"/>
-      <c r="U45" s="43"/>
+      <c r="U45" s="57"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="38"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="36"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -2624,22 +2623,22 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="13"/>
-      <c r="U46" s="43"/>
+      <c r="U46" s="57"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="67" t="s">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="54" t="s">
+      <c r="F47" s="50" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="17"/>
-      <c r="H47" s="41"/>
+      <c r="H47" s="39"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -2652,20 +2651,20 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="13"/>
-      <c r="U47" s="43"/>
+      <c r="U47" s="57"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="64" t="s">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="53" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="55"/>
-      <c r="G48" s="41"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="39"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -2679,20 +2678,20 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="13"/>
-      <c r="U48" s="43"/>
+      <c r="U48" s="57"/>
     </row>
     <row r="49" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="64"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="53"/>
       <c r="E49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="55"/>
+      <c r="F49" s="51"/>
       <c r="G49" s="17"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="40"/>
+      <c r="I49" s="38"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -2704,21 +2703,21 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="13"/>
-      <c r="U49" s="43"/>
+      <c r="U49" s="57"/>
     </row>
     <row r="50" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="64"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="53"/>
       <c r="E50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="55"/>
+      <c r="F50" s="51"/>
       <c r="G50" s="17"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="27"/>
+      <c r="J50" s="38"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -2729,22 +2728,22 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="13"/>
-      <c r="U50" s="43"/>
+      <c r="U50" s="57"/>
     </row>
     <row r="51" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A51" s="62"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="64"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="53"/>
       <c r="E51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="55"/>
+      <c r="F51" s="51"/>
       <c r="G51" s="17"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="40"/>
+      <c r="K51" s="38"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -2754,17 +2753,17 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="13"/>
-      <c r="U51" s="43"/>
+      <c r="U51" s="57"/>
     </row>
     <row r="52" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A52" s="62"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="64"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="55"/>
+      <c r="F52" s="51"/>
       <c r="G52" s="17"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2779,20 +2778,20 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="13"/>
-      <c r="U52" s="43"/>
+      <c r="U52" s="57"/>
     </row>
     <row r="53" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A53" s="62"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="67"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="44"/>
       <c r="D53" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="56"/>
-      <c r="G53" s="33"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="27"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -2806,24 +2805,24 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="13"/>
-      <c r="U53" s="43"/>
+      <c r="U53" s="57"/>
     </row>
     <row r="54" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A54" s="62"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="68" t="s">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="64" t="s">
+      <c r="D54" s="53" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="48" t="s">
+      <c r="F54" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="38"/>
+      <c r="G54" s="36"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -2837,19 +2836,19 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="13"/>
-      <c r="U54" s="43"/>
+      <c r="U54" s="57"/>
     </row>
     <row r="55" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A55" s="62"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="64"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="53"/>
       <c r="E55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="49"/>
+      <c r="F55" s="63"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="40"/>
+      <c r="H55" s="38"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -2862,20 +2861,20 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="13"/>
-      <c r="U55" s="43"/>
+      <c r="U55" s="57"/>
     </row>
     <row r="56" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A56" s="62"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="64"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="49"/>
+      <c r="F56" s="63"/>
       <c r="G56" s="17"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="40"/>
+      <c r="I56" s="38"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -2887,20 +2886,20 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="13"/>
-      <c r="U56" s="43"/>
+      <c r="U56" s="57"/>
     </row>
     <row r="57" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A57" s="62"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="64"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="50"/>
+      <c r="F57" s="64"/>
       <c r="G57" s="17"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="34"/>
+      <c r="J57" s="38"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -2911,19 +2910,19 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="13"/>
-      <c r="U57" s="43"/>
+      <c r="U57" s="57"/>
     </row>
     <row r="58" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A58" s="62"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="69"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="54" t="s">
+      <c r="F58" s="50" t="s">
         <v>56</v>
       </c>
       <c r="G58" s="17"/>
@@ -2940,20 +2939,20 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="13"/>
-      <c r="U58" s="43"/>
+      <c r="U58" s="57"/>
     </row>
     <row r="59" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A59" s="62"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="65" t="s">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="54" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="38"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="36"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -2967,20 +2966,20 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="13"/>
-      <c r="U59" s="43"/>
+      <c r="U59" s="57"/>
     </row>
     <row r="60" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A60" s="62"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="66"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="56"/>
+      <c r="F60" s="52"/>
       <c r="G60" s="17"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="40"/>
+      <c r="I60" s="38"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -2992,19 +2991,19 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="13"/>
-      <c r="U60" s="43"/>
+      <c r="U60" s="57"/>
     </row>
     <row r="61" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A61" s="62"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="67" t="s">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="44" t="s">
         <v>42</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="45" t="s">
+      <c r="F61" s="59" t="s">
         <v>53</v>
       </c>
       <c r="G61" s="17"/>
@@ -3021,17 +3020,17 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="13"/>
-      <c r="U61" s="43"/>
+      <c r="U61" s="57"/>
     </row>
     <row r="62" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A62" s="62"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="67"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="44"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="47"/>
+      <c r="F62" s="61"/>
       <c r="G62" s="17"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3046,7 +3045,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="13"/>
-      <c r="U62" s="43"/>
+      <c r="U62" s="57"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
@@ -3120,8 +3119,8 @@
       <c r="CN62" s="2"/>
     </row>
     <row r="63" spans="1:92" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="63"/>
-      <c r="B63" s="63"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="10" t="s">
         <v>7</v>
       </c>
@@ -3139,13 +3138,13 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
-      <c r="O63" s="35"/>
+      <c r="O63" s="34"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="14"/>
-      <c r="U63" s="43"/>
+      <c r="U63" s="57"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
@@ -3219,7 +3218,7 @@
       <c r="CN63" s="2"/>
     </row>
     <row r="64" spans="1:92" x14ac:dyDescent="0.4">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="23" t="s">
@@ -3232,7 +3231,7 @@
       <c r="F64" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="39"/>
+      <c r="G64" s="37"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -3246,11 +3245,11 @@
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="12"/>
-      <c r="U64" s="43"/>
+      <c r="U64" s="57"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A65" s="62"/>
-      <c r="B65" s="67" t="s">
+      <c r="A65" s="42"/>
+      <c r="B65" s="44" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="4"/>
@@ -3258,7 +3257,7 @@
       <c r="E65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="51" t="s">
+      <c r="F65" s="65" t="s">
         <v>55</v>
       </c>
       <c r="G65" s="17"/>
@@ -3275,17 +3274,17 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="13"/>
-      <c r="U65" s="43"/>
+      <c r="U65" s="57"/>
     </row>
     <row r="66" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="62"/>
-      <c r="B66" s="67"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="53"/>
+      <c r="F66" s="67"/>
       <c r="G66" s="17"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3300,10 +3299,31 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="13"/>
-      <c r="U66" s="44"/>
+      <c r="U66" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="U2:U66"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F12:F21"/>
+    <mergeCell ref="F47:F53"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A63"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D59:D60"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B63"/>
@@ -3319,27 +3339,6 @@
     <mergeCell ref="C54:C60"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="C23:C26"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A63"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="U2:U66"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F12:F21"/>
-    <mergeCell ref="F47:F53"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
